--- a/Pressão de estouro tubo 02.01.2019.xlsx
+++ b/Pressão de estouro tubo 02.01.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u406859\Desktop\Tubos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciolf\OneDrive\Doc\GitHub\SAE-Pipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_02941B5305D93DBFA2D7D2F4E337B97D4218B214" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{04D3C838-0E79-47C2-9DCA-D13A54B70523}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" tabRatio="857" firstSheet="7" activeTab="11"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" tabRatio="857" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico Espessura completo" sheetId="3" r:id="rId1"/>
@@ -22,22 +23,28 @@
     <sheet name="Gráfico Diâmetro desg" sheetId="14" r:id="rId8"/>
     <sheet name="Diameter Graph" sheetId="7" r:id="rId9"/>
     <sheet name="Lenght Graph" sheetId="16" r:id="rId10"/>
-    <sheet name="Lenght Graph (2)" sheetId="17" r:id="rId11"/>
+    <sheet name="AVG Lenght Graph" sheetId="17" r:id="rId11"/>
     <sheet name="Source" sheetId="15" r:id="rId12"/>
     <sheet name="Dados" sheetId="1" r:id="rId13"/>
     <sheet name="Equipamento utilizados" sheetId="2" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Amostra No.</t>
   </si>
@@ -478,20 +485,17 @@
   <si>
     <t>Damage lenght [mm]</t>
   </si>
-  <si>
-    <t>-42000-30*lenght+84000*dia-40500*dia^2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0\ &quot;mm&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0\ &quot;mm&quot;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -739,7 +743,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -877,17 +881,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,30 +961,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,32 +979,14 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -991,63 +1003,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
-    <cellStyle name="Vírgula 2" xfId="3"/>
+    <cellStyle name="Vírgula 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1113,7 +1128,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,7 +2025,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2122,7 +2135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2218,7 +2230,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2306,7 +2317,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2419,12 +2429,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burst Pressure vs. pipe damage lenght</a:t>
+              <a:t>Burst Pressure vs. Pipe Damage Lenght</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2471,7 +2480,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$G$6</c:f>
+              <c:f>Source!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2519,7 +2528,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2528,7 +2537,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2560,7 +2568,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$I$6:$I$14</c:f>
+              <c:f>Source!$Q$6:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2596,7 +2604,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$K$6:$K$14</c:f>
+              <c:f>Source!$S$6:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2642,7 +2650,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$G$15</c:f>
+              <c:f>Source!$O$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2699,7 +2707,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2731,7 +2738,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$I$15:$I$23</c:f>
+              <c:f>Source!$Q$15:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2767,7 +2774,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$K$15:$K$23</c:f>
+              <c:f>Source!$S$15:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2813,7 +2820,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$G$24</c:f>
+              <c:f>Source!$O$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2839,32 +2846,9 @@
             <c:symbol val="circle"/>
             <c:size val="6"/>
             <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
@@ -2884,7 +2868,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2893,7 +2877,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2925,7 +2908,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$I$24:$I$32</c:f>
+              <c:f>Source!$Q$24:$Q$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2961,7 +2944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$K$24:$K$32</c:f>
+              <c:f>Source!$S$24:$S$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3006,7 +2989,7 @@
           <c:idx val="4"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Pressão de trabalho</c:v>
+            <c:v>working pressure</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3039,7 +3022,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3060,9 +3042,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-D1A5-4DE0-BAC2-8A9BB811C298}"/>
                 </c:ext>
@@ -3115,10 +3095,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>3.95</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>4.8</c:v>
+                <c:v>19</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -3145,7 +3125,7 @@
           <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Limite Fadiga</c:v>
+            <c:v>Fadique limit</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3178,7 +3158,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3199,9 +3178,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-D1A5-4DE0-BAC2-8A9BB811C298}"/>
                 </c:ext>
@@ -3254,10 +3231,10 @@
               <c:formatCode>General</c:formatCode>
               <c:ptCount val="2"/>
               <c:pt idx="0">
-                <c:v>3.95</c:v>
+                <c:v>0</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>4.8</c:v>
+                <c:v>19</c:v>
               </c:pt>
             </c:numLit>
           </c:xVal>
@@ -3404,7 +3381,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$G$1</c:f>
+              <c:f>Source!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3413,7 +3390,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3523,7 +3499,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3596,7 +3571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3709,12 +3683,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burst Pressure vs. pipe damage lenght</a:t>
+              <a:t>Average Burst Pressure vs. Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ipe Damage Lenght</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3761,11 +3742,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$H$6</c:f>
+              <c:f>Source!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19x0,2</c:v>
+                  <c:v>Abrassion deep 0,2mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3784,7 +3765,24 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -3825,7 +3823,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3847,18 +3844,15 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3890,7 +3884,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$M$6:$M$14</c:f>
+              <c:f>Source!$U$6:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3908,7 +3902,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$N$6:$N$14</c:f>
+              <c:f>Source!$V$6:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3936,18 +3930,20 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$H$15</c:f>
+              <c:f>Source!$O$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19x0,4</c:v>
+                  <c:v>Abrassion deep 0,4mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst>
@@ -3963,11 +3959,11 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3991,11 +3987,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4027,7 +4022,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$M$15:$M$23</c:f>
+              <c:f>Source!$U$15:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4045,7 +4040,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$N$15:$N$23</c:f>
+              <c:f>Source!$V$15:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4073,11 +4068,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$H$24</c:f>
+              <c:f>Source!$O$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19x0,6</c:v>
+                  <c:v>Abrassion deep 0,6mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4156,7 +4151,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4178,18 +4172,15 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4221,7 +4212,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Source!$M$24:$M$32</c:f>
+              <c:f>Source!$U$24:$U$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4239,7 +4230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Source!$N$24:$N$32</c:f>
+              <c:f>Source!$V$24:$V$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4297,7 +4288,7 @@
         <c:title>
           <c:tx>
             <c:strRef>
-              <c:f>Source!$G$1</c:f>
+              <c:f>Source!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4306,7 +4297,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4416,7 +4406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4489,7 +4478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4607,7 +4595,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5493,7 +5480,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5604,7 +5590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5700,7 +5685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5788,7 +5772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5914,7 +5897,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6777,7 +6759,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6888,7 +6869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6984,7 +6964,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7072,7 +7051,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7198,7 +7176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7318,7 +7295,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -8084,7 +8060,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8195,7 +8170,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8291,7 +8265,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8379,7 +8352,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8502,7 +8474,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8937,7 +8908,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9048,7 +9018,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9121,7 +9090,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9239,7 +9207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9778,7 +9745,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9889,7 +9855,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9962,7 +9927,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10080,7 +10044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10610,7 +10573,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10631,9 +10593,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-ACE2-499C-8BDC-62238AE1F8B3}"/>
                 </c:ext>
@@ -10748,7 +10708,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10772,7 +10731,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -10989,7 +10947,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11100,7 +11057,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11173,7 +11129,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11303,7 +11258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -12050,7 +12004,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12165,7 +12118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12242,7 +12194,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12360,7 +12311,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12997,7 +12947,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13018,9 +12967,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-4644-4E9F-A473-0E0CA018DB65}"/>
                 </c:ext>
@@ -13136,7 +13083,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -13157,9 +13103,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-4644-4E9F-A473-0E0CA018DB65}"/>
                 </c:ext>
@@ -13373,7 +13317,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13484,7 +13427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13557,7 +13499,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19702,7 +19643,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19713,7 +19654,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0"/>
@@ -19724,10 +19665,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -19735,7 +19676,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19746,7 +19687,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19757,7 +19698,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19768,7 +19709,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19779,7 +19720,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19790,7 +19731,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19801,7 +19742,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19812,7 +19753,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -19829,7 +19770,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19856,7 +19803,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19880,10 +19833,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9637796" cy="6003257"/>
+    <xdr:ext cx="9639157" cy="6007528"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19907,10 +19866,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9637796" cy="6003257"/>
+    <xdr:ext cx="9639300" cy="6007100"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19937,7 +19902,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19964,7 +19935,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -19991,7 +19968,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -20018,7 +20001,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -20045,7 +20034,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -20072,7 +20067,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -20287,7 +20288,13 @@
     <xdr:ext cx="9637796" cy="6003257"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -20569,66 +20576,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="B1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="107"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="42"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="60"/>
+    <col min="7" max="8" width="10.08984375" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="109"/>
+    <col min="12" max="12" width="12.6328125" style="109" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="109"/>
+    <col min="17" max="17" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.1796875" style="42"/>
+    <col min="22" max="22" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="112">
+        <f>L2/M2</f>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="P1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="78" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="S1" s="64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="79"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="91"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="91"/>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="C2" s="71"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="56">
+        <f>COUNTIF(L3:L41,"&lt;0,1")</f>
+        <v>25</v>
+      </c>
+      <c r="M2" s="104">
+        <f>COUNTA(L3:L41)</f>
+        <v>39</v>
+      </c>
+      <c r="N2" s="104"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="65"/>
     </row>
-    <row r="3" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="65" t="s">
+    <row r="3" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="103">
-        <v>0</v>
+      <c r="D3" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E3" s="47">
         <v>4.76</v>
@@ -20636,34 +20674,60 @@
       <c r="F3" s="26">
         <v>1240</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="56">
+        <f>-34686.0894-21.6703543*D3+10.090458*LN(D3)+15138.5327*E3-1590.92297*E3^2</f>
+        <v>1233.8912472034426</v>
+      </c>
+      <c r="H3" s="110">
+        <f>ABS(F3-G3)</f>
+        <v>6.1087527965573827</v>
+      </c>
+      <c r="I3" s="56">
+        <f>-34686-21*D3+10*LN(D3)+15138*E3-1590*E3^2</f>
+        <v>1253.1904962802364</v>
+      </c>
+      <c r="J3" s="110">
+        <f>ABS(F3-I3)</f>
+        <v>13.190496280236403</v>
+      </c>
+      <c r="K3" s="111">
+        <f>J3-H3</f>
+        <v>7.0817434836790198</v>
+      </c>
+      <c r="L3" s="112">
+        <f>ABS((I3-F3)/F3)</f>
+        <v>1.0637497000190647E-2</v>
+      </c>
+      <c r="M3" s="111"/>
+      <c r="N3" s="105"/>
+      <c r="P3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="50">
+      <c r="Q3" s="50">
         <v>0</v>
       </c>
-      <c r="J3" s="41">
+      <c r="R3" s="41">
         <v>4.74</v>
       </c>
-      <c r="K3" s="92">
+      <c r="S3" s="51">
         <v>1260</v>
       </c>
-      <c r="L3" s="98">
-        <f>_xlfn.STDEV.S(K3:K5)</f>
+      <c r="T3" s="62">
+        <f>_xlfn.STDEV.S(S3:S5)</f>
         <v>70.237691685684922</v>
       </c>
-      <c r="M3" s="75">
+      <c r="U3" s="61">
         <v>0</v>
       </c>
-      <c r="N3" s="75">
-        <f>MEDIAN(K3:K5)</f>
+      <c r="V3" s="61">
+        <f>MEDIAN(S3:S5)</f>
         <v>1260</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="65"/>
-      <c r="D4" s="103">
-        <v>0</v>
+    <row r="4" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C4" s="66"/>
+      <c r="D4" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E4" s="47">
         <v>4.7699999999999996</v>
@@ -20671,24 +20735,50 @@
       <c r="F4" s="26">
         <v>1220</v>
       </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="50">
+      <c r="G4" s="56">
+        <f t="shared" ref="G4:G41" si="0">-34686.0894-21.6703543*D4+10.090458*LN(D4)+15138.5327*E4-1590.92297*E4^2</f>
+        <v>1233.6616151624403</v>
+      </c>
+      <c r="H4" s="110">
+        <f t="shared" ref="H4:H41" si="1">ABS(F4-G4)</f>
+        <v>13.661615162440285</v>
+      </c>
+      <c r="I4" s="56">
+        <f t="shared" ref="I4:I41" si="2">-34686-21*D4+10*LN(D4)+15138*E4-1590*E4^2</f>
+        <v>1253.0434962802392</v>
+      </c>
+      <c r="J4" s="110">
+        <f t="shared" ref="J4:J41" si="3">ABS(F4-I4)</f>
+        <v>33.043496280239196</v>
+      </c>
+      <c r="K4" s="111">
+        <f t="shared" ref="K4:K41" si="4">J4-H4</f>
+        <v>19.381881117798912</v>
+      </c>
+      <c r="L4" s="112">
+        <f t="shared" ref="L4:L42" si="5">ABS((I4-F4)/F4)</f>
+        <v>2.7084833016589507E-2</v>
+      </c>
+      <c r="M4" s="111"/>
+      <c r="N4" s="105"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="41">
+      <c r="R4" s="41">
         <v>4.72</v>
       </c>
-      <c r="K4" s="92">
+      <c r="S4" s="51">
         <v>1200</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
-    <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="65"/>
-      <c r="D5" s="103">
-        <v>0</v>
+    <row r="5" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="66"/>
+      <c r="D5" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E5" s="47">
         <v>4.8</v>
@@ -20696,25 +20786,51 @@
       <c r="F5" s="26">
         <v>1200</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="50">
+      <c r="G5" s="56">
+        <f t="shared" si="0"/>
+        <v>1231.0636114754379</v>
+      </c>
+      <c r="H5" s="110">
+        <f t="shared" si="1"/>
+        <v>31.063611475437938</v>
+      </c>
+      <c r="I5" s="56">
+        <f t="shared" si="2"/>
+        <v>1250.6944962802372</v>
+      </c>
+      <c r="J5" s="110">
+        <f t="shared" si="3"/>
+        <v>50.694496280237217</v>
+      </c>
+      <c r="K5" s="111">
+        <f t="shared" si="4"/>
+        <v>19.63088480479928</v>
+      </c>
+      <c r="L5" s="112">
+        <f t="shared" si="5"/>
+        <v>4.224541356686435E-2</v>
+      </c>
+      <c r="M5" s="111"/>
+      <c r="N5" s="105"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="50">
         <v>0</v>
       </c>
-      <c r="J5" s="41">
+      <c r="R5" s="41">
         <v>4.7699999999999996</v>
       </c>
-      <c r="K5" s="92">
+      <c r="S5" s="51">
         <v>1340</v>
       </c>
-      <c r="L5" s="98"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
     </row>
-    <row r="6" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C6" s="65" t="s">
+    <row r="6" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="59">
         <v>19</v>
       </c>
       <c r="E6" s="47">
@@ -20723,36 +20839,62 @@
       <c r="F6" s="26">
         <v>990</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="56">
+        <f t="shared" si="0"/>
+        <v>845.551602342759</v>
+      </c>
+      <c r="H6" s="110">
+        <f t="shared" si="1"/>
+        <v>144.448397657241</v>
+      </c>
+      <c r="I6" s="56">
+        <f t="shared" si="2"/>
+        <v>874.46662979167013</v>
+      </c>
+      <c r="J6" s="110">
+        <f t="shared" si="3"/>
+        <v>115.53337020832987</v>
+      </c>
+      <c r="K6" s="111">
+        <f t="shared" si="4"/>
+        <v>-28.915027448911133</v>
+      </c>
+      <c r="L6" s="112">
+        <f t="shared" si="5"/>
+        <v>0.11670037394780795</v>
+      </c>
+      <c r="M6" s="111"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="P6" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="50">
+      <c r="Q6" s="50">
         <v>19</v>
       </c>
-      <c r="J6" s="47">
+      <c r="R6" s="47">
         <v>4.508</v>
       </c>
-      <c r="K6" s="26">
+      <c r="S6" s="26">
         <v>990</v>
       </c>
-      <c r="L6" s="98">
-        <f t="shared" ref="L6" si="0">_xlfn.STDEV.S(K6:K8)</f>
+      <c r="T6" s="62">
+        <f t="shared" ref="T6" si="6">_xlfn.STDEV.S(S6:S8)</f>
         <v>17.320508075688775</v>
       </c>
-      <c r="M6" s="75">
+      <c r="U6" s="61">
         <v>19</v>
       </c>
-      <c r="N6" s="75">
-        <f t="shared" ref="N6" si="1">MEDIAN(K6:K8)</f>
+      <c r="V6" s="61">
+        <f t="shared" ref="V6" si="7">MEDIAN(S6:S8)</f>
         <v>1020</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C7" s="65"/>
-      <c r="D7" s="103">
+    <row r="7" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="66"/>
+      <c r="D7" s="59">
         <v>19</v>
       </c>
       <c r="E7" s="47">
@@ -20761,24 +20903,50 @@
       <c r="F7" s="26">
         <v>1020</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="50">
+      <c r="G7" s="56">
+        <f t="shared" si="0"/>
+        <v>893.96051502707996</v>
+      </c>
+      <c r="H7" s="110">
+        <f t="shared" si="1"/>
+        <v>126.03948497292004</v>
+      </c>
+      <c r="I7" s="56">
+        <f t="shared" si="2"/>
+        <v>923.43319979166699</v>
+      </c>
+      <c r="J7" s="110">
+        <f t="shared" si="3"/>
+        <v>96.566800208333007</v>
+      </c>
+      <c r="K7" s="111">
+        <f t="shared" si="4"/>
+        <v>-29.472684764587029</v>
+      </c>
+      <c r="L7" s="112">
+        <f t="shared" si="5"/>
+        <v>9.4673333537581381E-2</v>
+      </c>
+      <c r="M7" s="111"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="50">
         <v>19</v>
       </c>
-      <c r="J7" s="47">
+      <c r="R7" s="47">
         <v>4.5789999999999997</v>
       </c>
-      <c r="K7" s="26">
+      <c r="S7" s="26">
         <v>1020</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
     </row>
-    <row r="8" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C8" s="65"/>
-      <c r="D8" s="103">
+    <row r="8" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="66"/>
+      <c r="D8" s="59">
         <v>19</v>
       </c>
       <c r="E8" s="47">
@@ -20787,26 +20955,52 @@
       <c r="F8" s="26">
         <v>1020</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="50">
+      <c r="G8" s="56">
+        <f t="shared" si="0"/>
+        <v>861.54020056506488</v>
+      </c>
+      <c r="H8" s="110">
+        <f t="shared" si="1"/>
+        <v>158.45979943493512</v>
+      </c>
+      <c r="I8" s="56">
+        <f t="shared" si="2"/>
+        <v>890.61919979165759</v>
+      </c>
+      <c r="J8" s="110">
+        <f t="shared" si="3"/>
+        <v>129.38080020834241</v>
+      </c>
+      <c r="K8" s="111">
+        <f t="shared" si="4"/>
+        <v>-29.078999226592714</v>
+      </c>
+      <c r="L8" s="112">
+        <f t="shared" si="5"/>
+        <v>0.1268439217728847</v>
+      </c>
+      <c r="M8" s="111"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="50">
         <v>19</v>
       </c>
-      <c r="J8" s="47">
+      <c r="R8" s="47">
         <v>4.5289999999999999</v>
       </c>
-      <c r="K8" s="26">
+      <c r="S8" s="26">
         <v>1020</v>
       </c>
-      <c r="L8" s="98"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
     </row>
-    <row r="9" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C9" s="65" t="s">
+    <row r="9" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="103">
+      <c r="D9" s="59">
         <v>19</v>
       </c>
       <c r="E9" s="47">
@@ -20815,34 +21009,60 @@
       <c r="F9" s="26">
         <v>620</v>
       </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="65" t="s">
+      <c r="G9" s="56">
+        <f t="shared" si="0"/>
+        <v>665.79691817747153</v>
+      </c>
+      <c r="H9" s="110">
+        <f t="shared" si="1"/>
+        <v>45.796918177471525</v>
+      </c>
+      <c r="I9" s="56">
+        <f t="shared" si="2"/>
+        <v>693.42199979166617</v>
+      </c>
+      <c r="J9" s="110">
+        <f t="shared" si="3"/>
+        <v>73.421999791666167</v>
+      </c>
+      <c r="K9" s="111">
+        <f t="shared" si="4"/>
+        <v>27.625081614194642</v>
+      </c>
+      <c r="L9" s="112">
+        <f t="shared" si="5"/>
+        <v>0.11842258030913898</v>
+      </c>
+      <c r="M9" s="111"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="50">
+      <c r="Q9" s="50">
         <v>3</v>
       </c>
-      <c r="J9" s="47">
+      <c r="R9" s="47">
         <v>4.53</v>
       </c>
-      <c r="K9" s="26">
+      <c r="S9" s="26">
         <v>900</v>
       </c>
-      <c r="L9" s="98">
-        <f t="shared" ref="L9" si="2">_xlfn.STDEV.S(K9:K11)</f>
+      <c r="T9" s="62">
+        <f t="shared" ref="T9" si="8">_xlfn.STDEV.S(S9:S11)</f>
         <v>101.15993936995679</v>
       </c>
-      <c r="M9" s="75">
+      <c r="U9" s="61">
         <v>3</v>
       </c>
-      <c r="N9" s="75">
-        <f t="shared" ref="N9" si="3">MEDIAN(K9:K11)</f>
+      <c r="V9" s="61">
+        <f t="shared" ref="V9" si="9">MEDIAN(S9:S11)</f>
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C10" s="65"/>
-      <c r="D10" s="103">
+    <row r="10" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="66"/>
+      <c r="D10" s="59">
         <v>19</v>
       </c>
       <c r="E10" s="47">
@@ -20851,24 +21071,50 @@
       <c r="F10" s="26">
         <v>620</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="50">
+      <c r="G10" s="56">
+        <f t="shared" si="0"/>
+        <v>663.12554815291878</v>
+      </c>
+      <c r="H10" s="110">
+        <f t="shared" si="1"/>
+        <v>43.125548152918782</v>
+      </c>
+      <c r="I10" s="56">
+        <f t="shared" si="2"/>
+        <v>690.73567979166546</v>
+      </c>
+      <c r="J10" s="110">
+        <f t="shared" si="3"/>
+        <v>70.735679791665461</v>
+      </c>
+      <c r="K10" s="111">
+        <f t="shared" si="4"/>
+        <v>27.61013163874668</v>
+      </c>
+      <c r="L10" s="112">
+        <f t="shared" si="5"/>
+        <v>0.11408980611558946</v>
+      </c>
+      <c r="M10" s="111"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="50">
         <v>3</v>
       </c>
-      <c r="J10" s="47">
+      <c r="R10" s="47">
         <v>4.4800000000000004</v>
       </c>
-      <c r="K10" s="26">
+      <c r="S10" s="26">
         <v>910</v>
       </c>
-      <c r="L10" s="98"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
     </row>
-    <row r="11" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C11" s="65"/>
-      <c r="D11" s="103">
+    <row r="11" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="66"/>
+      <c r="D11" s="59">
         <v>19</v>
       </c>
       <c r="E11" s="47">
@@ -20877,26 +21123,52 @@
       <c r="F11" s="26">
         <v>720</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="50">
+      <c r="G11" s="56">
+        <f t="shared" si="0"/>
+        <v>689.26651612931892</v>
+      </c>
+      <c r="H11" s="110">
+        <f t="shared" si="1"/>
+        <v>30.733483870681084</v>
+      </c>
+      <c r="I11" s="56">
+        <f t="shared" si="2"/>
+        <v>717.02647979166795</v>
+      </c>
+      <c r="J11" s="110">
+        <f t="shared" si="3"/>
+        <v>2.9735202083320473</v>
+      </c>
+      <c r="K11" s="111">
+        <f t="shared" si="4"/>
+        <v>-27.759963662349037</v>
+      </c>
+      <c r="L11" s="112">
+        <f t="shared" si="5"/>
+        <v>4.1298891782389543E-3</v>
+      </c>
+      <c r="M11" s="111"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="50">
         <v>3</v>
       </c>
-      <c r="J11" s="47">
+      <c r="R11" s="47">
         <v>4.45</v>
       </c>
-      <c r="K11" s="26">
+      <c r="S11" s="26">
         <v>1080</v>
       </c>
-      <c r="L11" s="98"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
     </row>
-    <row r="12" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C12" s="65" t="s">
+    <row r="12" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="59">
         <v>19</v>
       </c>
       <c r="E12" s="47">
@@ -20905,34 +21177,60 @@
       <c r="F12" s="26">
         <v>240</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="65" t="s">
+      <c r="G12" s="56">
+        <f t="shared" si="0"/>
+        <v>357.12446032783919</v>
+      </c>
+      <c r="H12" s="110">
+        <f t="shared" si="1"/>
+        <v>117.12446032783919</v>
+      </c>
+      <c r="I12" s="56">
+        <f t="shared" si="2"/>
+        <v>383.36938979166371</v>
+      </c>
+      <c r="J12" s="110">
+        <f t="shared" si="3"/>
+        <v>143.36938979166371</v>
+      </c>
+      <c r="K12" s="111">
+        <f t="shared" si="4"/>
+        <v>26.244929463824519</v>
+      </c>
+      <c r="L12" s="112">
+        <f t="shared" si="5"/>
+        <v>0.59737245746526546</v>
+      </c>
+      <c r="M12" s="111"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="50">
+      <c r="Q12" s="50">
         <v>1.5</v>
       </c>
-      <c r="J12" s="41">
+      <c r="R12" s="41">
         <v>4.5</v>
       </c>
-      <c r="K12" s="92">
+      <c r="S12" s="51">
         <v>1260</v>
       </c>
-      <c r="L12" s="98">
-        <f t="shared" ref="L12" si="4">_xlfn.STDEV.S(K12:K14)</f>
+      <c r="T12" s="62">
+        <f t="shared" ref="T12" si="10">_xlfn.STDEV.S(S12:S14)</f>
         <v>11.547005383792515</v>
       </c>
-      <c r="M12" s="75">
+      <c r="U12" s="61">
         <v>1.5</v>
       </c>
-      <c r="N12" s="75">
-        <f t="shared" ref="N12" si="5">MEDIAN(K12:K14)</f>
+      <c r="V12" s="61">
+        <f t="shared" ref="V12" si="11">MEDIAN(S12:S14)</f>
         <v>1260</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C13" s="65"/>
-      <c r="D13" s="103">
+    <row r="13" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="66"/>
+      <c r="D13" s="59">
         <v>19</v>
       </c>
       <c r="E13" s="47">
@@ -20941,24 +21239,50 @@
       <c r="F13" s="26">
         <v>280</v>
       </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="50">
+      <c r="G13" s="56">
+        <f t="shared" si="0"/>
+        <v>349.36351736432698</v>
+      </c>
+      <c r="H13" s="110">
+        <f t="shared" si="1"/>
+        <v>69.363517364326981</v>
+      </c>
+      <c r="I13" s="56">
+        <f t="shared" si="2"/>
+        <v>375.57994979166688</v>
+      </c>
+      <c r="J13" s="110">
+        <f t="shared" si="3"/>
+        <v>95.579949791666877</v>
+      </c>
+      <c r="K13" s="111">
+        <f t="shared" si="4"/>
+        <v>26.216432427339896</v>
+      </c>
+      <c r="L13" s="112">
+        <f t="shared" si="5"/>
+        <v>0.34135696354166739</v>
+      </c>
+      <c r="M13" s="111"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="50">
         <v>1.5</v>
       </c>
-      <c r="J13" s="41">
+      <c r="R13" s="41">
         <v>4.53</v>
       </c>
-      <c r="K13" s="92">
+      <c r="S13" s="51">
         <v>1280</v>
       </c>
-      <c r="L13" s="98"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
     </row>
-    <row r="14" spans="2:14" ht="24" x14ac:dyDescent="0.25">
-      <c r="C14" s="65"/>
-      <c r="D14" s="103">
+    <row r="14" spans="2:22" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="66"/>
+      <c r="D14" s="59">
         <v>19</v>
       </c>
       <c r="E14" s="47">
@@ -20967,26 +21291,52 @@
       <c r="F14" s="26">
         <v>340</v>
       </c>
-      <c r="G14" s="97"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="50">
+      <c r="G14" s="56">
+        <f t="shared" si="0"/>
+        <v>430.12567640147608</v>
+      </c>
+      <c r="H14" s="110">
+        <f t="shared" si="1"/>
+        <v>90.125676401476085</v>
+      </c>
+      <c r="I14" s="56">
+        <f t="shared" si="2"/>
+        <v>456.64999979166896</v>
+      </c>
+      <c r="J14" s="110">
+        <f t="shared" si="3"/>
+        <v>116.64999979166896</v>
+      </c>
+      <c r="K14" s="111">
+        <f t="shared" si="4"/>
+        <v>26.524323390192876</v>
+      </c>
+      <c r="L14" s="112">
+        <f t="shared" si="5"/>
+        <v>0.34308823468137928</v>
+      </c>
+      <c r="M14" s="111"/>
+      <c r="N14" s="106"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="50">
         <v>1.5</v>
       </c>
-      <c r="J14" s="41">
+      <c r="R14" s="41">
         <v>4.57</v>
       </c>
-      <c r="K14" s="92">
+      <c r="S14" s="51">
         <v>1260</v>
       </c>
-      <c r="L14" s="98"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
     </row>
-    <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="65" t="s">
+    <row r="15" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="59">
         <v>3</v>
       </c>
       <c r="E15" s="47">
@@ -20995,36 +21345,62 @@
       <c r="F15" s="26">
         <v>900</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="56">
+        <f t="shared" si="0"/>
+        <v>1190.3669941840999</v>
+      </c>
+      <c r="H15" s="110">
+        <f t="shared" si="1"/>
+        <v>290.36699418409989</v>
+      </c>
+      <c r="I15" s="56">
+        <f t="shared" si="2"/>
+        <v>1208.8951228866754</v>
+      </c>
+      <c r="J15" s="110">
+        <f t="shared" si="3"/>
+        <v>308.89512288667538</v>
+      </c>
+      <c r="K15" s="111">
+        <f t="shared" si="4"/>
+        <v>18.528128702575486</v>
+      </c>
+      <c r="L15" s="112">
+        <f t="shared" si="5"/>
+        <v>0.3432168032074171</v>
+      </c>
+      <c r="M15" s="111"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="P15" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="50">
+      <c r="Q15" s="50">
         <v>19</v>
       </c>
-      <c r="J15" s="47">
+      <c r="R15" s="47">
         <v>4.3390000000000004</v>
       </c>
-      <c r="K15" s="26">
+      <c r="S15" s="26">
         <v>620</v>
       </c>
-      <c r="L15" s="98">
-        <f t="shared" ref="L15" si="6">_xlfn.STDEV.S(K15:K17)</f>
+      <c r="T15" s="62">
+        <f t="shared" ref="T15" si="12">_xlfn.STDEV.S(S15:S17)</f>
         <v>57.735026918962575</v>
       </c>
-      <c r="M15" s="75">
+      <c r="U15" s="61">
         <v>19</v>
       </c>
-      <c r="N15" s="75">
-        <f t="shared" ref="N15" si="7">MEDIAN(K15:K17)</f>
+      <c r="V15" s="61">
+        <f t="shared" ref="V15" si="13">MEDIAN(S15:S17)</f>
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="65"/>
-      <c r="D16" s="103">
+    <row r="16" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C16" s="66"/>
+      <c r="D16" s="59">
         <v>3</v>
       </c>
       <c r="E16" s="47">
@@ -21033,24 +21409,50 @@
       <c r="F16" s="26">
         <v>910</v>
       </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="50">
+      <c r="G16" s="56">
+        <f t="shared" si="0"/>
+        <v>1150.1511571691008</v>
+      </c>
+      <c r="H16" s="110">
+        <f t="shared" si="1"/>
+        <v>240.15115716910077</v>
+      </c>
+      <c r="I16" s="56">
+        <f t="shared" si="2"/>
+        <v>1168.2901228866795</v>
+      </c>
+      <c r="J16" s="110">
+        <f t="shared" si="3"/>
+        <v>258.29012288667946</v>
+      </c>
+      <c r="K16" s="111">
+        <f t="shared" si="4"/>
+        <v>18.138965717578685</v>
+      </c>
+      <c r="L16" s="112">
+        <f t="shared" si="5"/>
+        <v>0.2838352998754719</v>
+      </c>
+      <c r="M16" s="111"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="50">
         <v>19</v>
       </c>
-      <c r="J16" s="47">
+      <c r="R16" s="47">
         <v>4.3369999999999997</v>
       </c>
-      <c r="K16" s="26">
+      <c r="S16" s="26">
         <v>620</v>
       </c>
-      <c r="L16" s="98"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
     </row>
-    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="65"/>
-      <c r="D17" s="103">
+    <row r="17" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C17" s="66"/>
+      <c r="D17" s="59">
         <v>3</v>
       </c>
       <c r="E17" s="47">
@@ -21059,26 +21461,52 @@
       <c r="F17" s="26">
         <v>1080</v>
       </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="50">
+      <c r="G17" s="56">
+        <f t="shared" si="0"/>
+        <v>1122.2034398320975</v>
+      </c>
+      <c r="H17" s="110">
+        <f t="shared" si="1"/>
+        <v>42.203439832097501</v>
+      </c>
+      <c r="I17" s="56">
+        <f t="shared" si="2"/>
+        <v>1140.111122886683</v>
+      </c>
+      <c r="J17" s="110">
+        <f t="shared" si="3"/>
+        <v>60.111122886683006</v>
+      </c>
+      <c r="K17" s="111">
+        <f t="shared" si="4"/>
+        <v>17.907683054585505</v>
+      </c>
+      <c r="L17" s="112">
+        <f t="shared" si="5"/>
+        <v>5.565844711729908E-2</v>
+      </c>
+      <c r="M17" s="111"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="50">
         <v>19</v>
       </c>
-      <c r="J17" s="47">
+      <c r="R17" s="47">
         <v>4.3570000000000002</v>
       </c>
-      <c r="K17" s="26">
+      <c r="S17" s="26">
         <v>720</v>
       </c>
-      <c r="L17" s="98"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
     </row>
-    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="65" t="s">
+    <row r="18" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C18" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D18" s="59">
         <v>3</v>
       </c>
       <c r="E18" s="47">
@@ -21087,34 +21515,60 @@
       <c r="F18" s="26">
         <v>900</v>
       </c>
-      <c r="G18" s="97"/>
-      <c r="H18" s="65" t="s">
+      <c r="G18" s="56">
+        <f t="shared" si="0"/>
+        <v>939.50993295709486</v>
+      </c>
+      <c r="H18" s="110">
+        <f t="shared" si="1"/>
+        <v>39.509932957094861</v>
+      </c>
+      <c r="I18" s="56">
+        <f t="shared" si="2"/>
+        <v>956.286122886675</v>
+      </c>
+      <c r="J18" s="110">
+        <f t="shared" si="3"/>
+        <v>56.286122886675003</v>
+      </c>
+      <c r="K18" s="111">
+        <f t="shared" si="4"/>
+        <v>16.776189929580141</v>
+      </c>
+      <c r="L18" s="112">
+        <f t="shared" si="5"/>
+        <v>6.2540136540749997E-2</v>
+      </c>
+      <c r="M18" s="111"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="50">
+      <c r="Q18" s="50">
         <v>3</v>
       </c>
-      <c r="J18" s="47">
+      <c r="R18" s="47">
         <v>4.3</v>
       </c>
-      <c r="K18" s="26">
+      <c r="S18" s="26">
         <v>900</v>
       </c>
-      <c r="L18" s="98">
-        <f t="shared" ref="L18" si="8">_xlfn.STDEV.S(K18:K20)</f>
+      <c r="T18" s="62">
+        <f t="shared" ref="T18" si="14">_xlfn.STDEV.S(S18:S20)</f>
         <v>57.735026918962575</v>
       </c>
-      <c r="M18" s="75">
+      <c r="U18" s="61">
         <v>3</v>
       </c>
-      <c r="N18" s="75">
-        <f t="shared" ref="N18" si="9">MEDIAN(K18:K20)</f>
+      <c r="V18" s="61">
+        <f t="shared" ref="V18" si="15">MEDIAN(S18:S20)</f>
         <v>900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="65"/>
-      <c r="D19" s="103">
+    <row r="19" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C19" s="66"/>
+      <c r="D19" s="59">
         <v>3</v>
       </c>
       <c r="E19" s="47">
@@ -21123,24 +21577,50 @@
       <c r="F19" s="26">
         <v>900</v>
       </c>
-      <c r="G19" s="97"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="50">
+      <c r="G19" s="56">
+        <f t="shared" si="0"/>
+        <v>939.50993295709486</v>
+      </c>
+      <c r="H19" s="110">
+        <f t="shared" si="1"/>
+        <v>39.509932957094861</v>
+      </c>
+      <c r="I19" s="56">
+        <f t="shared" si="2"/>
+        <v>956.286122886675</v>
+      </c>
+      <c r="J19" s="110">
+        <f t="shared" si="3"/>
+        <v>56.286122886675003</v>
+      </c>
+      <c r="K19" s="111">
+        <f t="shared" si="4"/>
+        <v>16.776189929580141</v>
+      </c>
+      <c r="L19" s="112">
+        <f t="shared" si="5"/>
+        <v>6.2540136540749997E-2</v>
+      </c>
+      <c r="M19" s="111"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="50">
         <v>3</v>
       </c>
-      <c r="J19" s="47">
+      <c r="R19" s="47">
         <v>4.3</v>
       </c>
-      <c r="K19" s="26">
+      <c r="S19" s="26">
         <v>900</v>
       </c>
-      <c r="L19" s="98"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
     </row>
-    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="65"/>
-      <c r="D20" s="103">
+    <row r="20" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C20" s="66"/>
+      <c r="D20" s="59">
         <v>3</v>
       </c>
       <c r="E20" s="47">
@@ -21149,26 +21629,52 @@
       <c r="F20" s="26">
         <v>1000</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="50">
+      <c r="G20" s="56">
+        <f t="shared" si="0"/>
+        <v>1021.1783197450859</v>
+      </c>
+      <c r="H20" s="110">
+        <f t="shared" si="1"/>
+        <v>21.178319745085901</v>
+      </c>
+      <c r="I20" s="56">
+        <f t="shared" si="2"/>
+        <v>1038.4021228866841</v>
+      </c>
+      <c r="J20" s="110">
+        <f t="shared" si="3"/>
+        <v>38.402122886684083</v>
+      </c>
+      <c r="K20" s="111">
+        <f t="shared" si="4"/>
+        <v>17.223803141598182</v>
+      </c>
+      <c r="L20" s="112">
+        <f t="shared" si="5"/>
+        <v>3.8402122886684084E-2</v>
+      </c>
+      <c r="M20" s="111"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="50">
         <v>3</v>
       </c>
-      <c r="J20" s="47">
+      <c r="R20" s="47">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K20" s="26">
+      <c r="S20" s="26">
         <v>1000</v>
       </c>
-      <c r="L20" s="98"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
     </row>
-    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="65" t="s">
+    <row r="21" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C21" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D21" s="59">
         <v>3</v>
       </c>
       <c r="E21" s="47">
@@ -21177,34 +21683,60 @@
       <c r="F21" s="26">
         <v>690</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="65" t="s">
+      <c r="G21" s="56">
+        <f t="shared" si="0"/>
+        <v>795.52989268009696</v>
+      </c>
+      <c r="H21" s="110">
+        <f t="shared" si="1"/>
+        <v>105.52989268009696</v>
+      </c>
+      <c r="I21" s="56">
+        <f t="shared" si="2"/>
+        <v>811.64712288667579</v>
+      </c>
+      <c r="J21" s="110">
+        <f t="shared" si="3"/>
+        <v>121.64712288667579</v>
+      </c>
+      <c r="K21" s="111">
+        <f t="shared" si="4"/>
+        <v>16.117230206578824</v>
+      </c>
+      <c r="L21" s="112">
+        <f t="shared" si="5"/>
+        <v>0.17630017809663157</v>
+      </c>
+      <c r="M21" s="111"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="50">
+      <c r="Q21" s="50">
         <v>1.5</v>
       </c>
-      <c r="J21" s="41">
+      <c r="R21" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K21" s="92">
+      <c r="S21" s="51">
         <v>1120</v>
       </c>
-      <c r="L21" s="98">
-        <f>_xlfn.STDEV.S(K21:K23)</f>
+      <c r="T21" s="62">
+        <f>_xlfn.STDEV.S(S21:S23)</f>
         <v>30.550504633038933</v>
       </c>
-      <c r="M21" s="75">
+      <c r="U21" s="61">
         <v>1.5</v>
       </c>
-      <c r="N21" s="75">
-        <f t="shared" ref="N21" si="10">MEDIAN(K21:K23)</f>
+      <c r="V21" s="61">
+        <f t="shared" ref="V21" si="16">MEDIAN(S21:S23)</f>
         <v>1120</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="65"/>
-      <c r="D22" s="103">
+    <row r="22" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C22" s="66"/>
+      <c r="D22" s="59">
         <v>3</v>
       </c>
       <c r="E22" s="47">
@@ -21213,24 +21745,50 @@
       <c r="F22" s="26">
         <v>200</v>
       </c>
-      <c r="G22" s="97"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="50">
+      <c r="G22" s="56">
+        <f t="shared" si="0"/>
+        <v>260.35688390509313</v>
+      </c>
+      <c r="H22" s="110">
+        <f t="shared" si="1"/>
+        <v>60.356883905093127</v>
+      </c>
+      <c r="I22" s="56">
+        <f t="shared" si="2"/>
+        <v>274.72212288667652</v>
+      </c>
+      <c r="J22" s="110">
+        <f t="shared" si="3"/>
+        <v>74.722122886676516</v>
+      </c>
+      <c r="K22" s="111">
+        <f t="shared" si="4"/>
+        <v>14.365238981583389</v>
+      </c>
+      <c r="L22" s="112">
+        <f t="shared" si="5"/>
+        <v>0.37361061443338256</v>
+      </c>
+      <c r="M22" s="111"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="50">
         <v>1.5</v>
       </c>
-      <c r="J22" s="41">
+      <c r="R22" s="41">
         <v>4.34</v>
       </c>
-      <c r="K22" s="92">
+      <c r="S22" s="51">
         <v>1100</v>
       </c>
-      <c r="L22" s="98"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
     </row>
-    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="65"/>
-      <c r="D23" s="103">
+    <row r="23" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C23" s="66"/>
+      <c r="D23" s="59">
         <v>3</v>
       </c>
       <c r="E23" s="47">
@@ -21239,305 +21797,565 @@
       <c r="F23" s="26">
         <v>760</v>
       </c>
-      <c r="G23" s="97"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="50">
+      <c r="G23" s="56">
+        <f t="shared" si="0"/>
+        <v>812.80041330909444</v>
+      </c>
+      <c r="H23" s="110">
+        <f t="shared" si="1"/>
+        <v>52.800413309094438</v>
+      </c>
+      <c r="I23" s="56">
+        <f t="shared" si="2"/>
+        <v>828.99012288667291</v>
+      </c>
+      <c r="J23" s="110">
+        <f t="shared" si="3"/>
+        <v>68.990122886672907</v>
+      </c>
+      <c r="K23" s="111">
+        <f t="shared" si="4"/>
+        <v>16.189709577578469</v>
+      </c>
+      <c r="L23" s="112">
+        <f t="shared" si="5"/>
+        <v>9.0776477482464354E-2</v>
+      </c>
+      <c r="M23" s="111"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="50">
         <v>1.5</v>
       </c>
-      <c r="J23" s="41">
+      <c r="R23" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K23" s="92">
+      <c r="S23" s="51">
         <v>1160</v>
       </c>
-      <c r="L23" s="98"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
     </row>
-    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="65" t="s">
+    <row r="24" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C24" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="103">
+      <c r="D24" s="59">
         <v>1.5</v>
       </c>
       <c r="E24" s="41">
         <v>4.5</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="51">
         <v>1260</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="56">
+        <f t="shared" si="0"/>
+        <v>1192.7034046938352</v>
+      </c>
+      <c r="H24" s="110">
+        <f t="shared" si="1"/>
+        <v>67.296595306164818</v>
+      </c>
+      <c r="I24" s="56">
+        <f t="shared" si="2"/>
+        <v>1210.0546510810818</v>
+      </c>
+      <c r="J24" s="110">
+        <f t="shared" si="3"/>
+        <v>49.945348918918171</v>
+      </c>
+      <c r="K24" s="111">
+        <f t="shared" si="4"/>
+        <v>-17.351246387246647</v>
+      </c>
+      <c r="L24" s="112">
+        <f t="shared" si="5"/>
+        <v>3.9639165808665215E-2</v>
+      </c>
+      <c r="M24" s="111"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="P24" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="50">
+      <c r="Q24" s="50">
         <v>19</v>
       </c>
-      <c r="J24" s="47">
+      <c r="R24" s="47">
         <v>4.1500000000000004</v>
       </c>
-      <c r="K24" s="26">
+      <c r="S24" s="26">
         <v>240</v>
       </c>
-      <c r="L24" s="98">
-        <f t="shared" ref="L24" si="11">_xlfn.STDEV.S(K24:K26)</f>
+      <c r="T24" s="62">
+        <f t="shared" ref="T24" si="17">_xlfn.STDEV.S(S24:S26)</f>
         <v>50.332229568471618</v>
       </c>
-      <c r="M24" s="75">
+      <c r="U24" s="61">
         <v>19</v>
       </c>
-      <c r="N24" s="75">
-        <f t="shared" ref="N24" si="12">MEDIAN(K24:K26)</f>
+      <c r="V24" s="61">
+        <f t="shared" ref="V24" si="18">MEDIAN(S24:S26)</f>
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="65"/>
-      <c r="D25" s="103">
+    <row r="25" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C25" s="66"/>
+      <c r="D25" s="59">
         <v>1.5</v>
       </c>
       <c r="E25" s="41">
         <v>4.53</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="51">
         <v>1280</v>
       </c>
-      <c r="G25" s="97"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="50">
+      <c r="G25" s="56">
+        <f t="shared" si="0"/>
+        <v>1215.8783531208392</v>
+      </c>
+      <c r="H25" s="110">
+        <f t="shared" si="1"/>
+        <v>64.121646879160835</v>
+      </c>
+      <c r="I25" s="56">
+        <f t="shared" si="2"/>
+        <v>1233.4636510810778</v>
+      </c>
+      <c r="J25" s="110">
+        <f t="shared" si="3"/>
+        <v>46.536348918922158</v>
+      </c>
+      <c r="K25" s="111">
+        <f t="shared" si="4"/>
+        <v>-17.585297960238677</v>
+      </c>
+      <c r="L25" s="112">
+        <f t="shared" si="5"/>
+        <v>3.6356522592907933E-2</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="50">
         <v>19</v>
       </c>
-      <c r="J25" s="47">
+      <c r="R25" s="47">
         <v>4.1459999999999999</v>
       </c>
-      <c r="K25" s="26">
+      <c r="S25" s="26">
         <v>280</v>
       </c>
-      <c r="L25" s="98"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
     </row>
-    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="65"/>
-      <c r="D26" s="103">
+    <row r="26" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C26" s="66"/>
+      <c r="D26" s="59">
         <v>1.5</v>
       </c>
       <c r="E26" s="41">
         <v>4.57</v>
       </c>
-      <c r="F26" s="92">
+      <c r="F26" s="51">
         <v>1260</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="50">
+      <c r="G26" s="56">
+        <f t="shared" si="0"/>
+        <v>1242.3237000408408</v>
+      </c>
+      <c r="H26" s="110">
+        <f t="shared" si="1"/>
+        <v>17.676299959159223</v>
+      </c>
+      <c r="I26" s="56">
+        <f t="shared" si="2"/>
+        <v>1260.2236510810835</v>
+      </c>
+      <c r="J26" s="110">
+        <f t="shared" si="3"/>
+        <v>0.22365108108351706</v>
+      </c>
+      <c r="K26" s="111">
+        <f t="shared" si="4"/>
+        <v>-17.452648878075706</v>
+      </c>
+      <c r="L26" s="112">
+        <f t="shared" si="5"/>
+        <v>1.7750085800279132E-4</v>
+      </c>
+      <c r="M26" s="111"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="50">
         <v>19</v>
       </c>
-      <c r="J26" s="47">
+      <c r="R26" s="47">
         <v>4.1890000000000001</v>
       </c>
-      <c r="K26" s="26">
+      <c r="S26" s="26">
         <v>340</v>
       </c>
-      <c r="L26" s="98"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
     </row>
-    <row r="27" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="65" t="s">
+    <row r="27" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C27" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="103">
+      <c r="D27" s="59">
         <v>1.5</v>
       </c>
       <c r="E27" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="51">
         <v>1120</v>
       </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="65" t="s">
+      <c r="G27" s="56">
+        <f t="shared" si="0"/>
+        <v>1046.6896786818252</v>
+      </c>
+      <c r="H27" s="110">
+        <f t="shared" si="1"/>
+        <v>73.310321318174829</v>
+      </c>
+      <c r="I27" s="56">
+        <f t="shared" si="2"/>
+        <v>1062.9706510810865</v>
+      </c>
+      <c r="J27" s="110">
+        <f t="shared" si="3"/>
+        <v>57.029348918913456</v>
+      </c>
+      <c r="K27" s="111">
+        <f t="shared" si="4"/>
+        <v>-16.280972399261373</v>
+      </c>
+      <c r="L27" s="112">
+        <f t="shared" si="5"/>
+        <v>5.091906153474416E-2</v>
+      </c>
+      <c r="M27" s="111"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="50">
+      <c r="Q27" s="50">
         <v>3</v>
       </c>
-      <c r="J27" s="47">
+      <c r="R27" s="47">
         <v>4.21</v>
       </c>
-      <c r="K27" s="26">
+      <c r="S27" s="26">
         <v>690</v>
       </c>
-      <c r="L27" s="98">
-        <f t="shared" ref="L27" si="13">_xlfn.STDEV.S(K27:K29)</f>
+      <c r="T27" s="62">
+        <f t="shared" ref="T27" si="19">_xlfn.STDEV.S(S27:S29)</f>
         <v>305.12292604784716</v>
       </c>
-      <c r="M27" s="75">
+      <c r="U27" s="61">
         <v>3</v>
       </c>
-      <c r="N27" s="75">
-        <f t="shared" ref="N27" si="14">MEDIAN(K27:K29)</f>
+      <c r="V27" s="61">
+        <f t="shared" ref="V27" si="20">MEDIAN(S27:S29)</f>
         <v>690</v>
       </c>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
     </row>
-    <row r="28" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="65"/>
-      <c r="D28" s="103">
+    <row r="28" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C28" s="66"/>
+      <c r="D28" s="59">
         <v>1.5</v>
       </c>
       <c r="E28" s="41">
         <v>4.34</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="51">
         <v>1100</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="50">
+      <c r="G28" s="56">
+        <f t="shared" si="0"/>
+        <v>1020.7396214618238</v>
+      </c>
+      <c r="H28" s="110">
+        <f t="shared" si="1"/>
+        <v>79.260378538176155</v>
+      </c>
+      <c r="I28" s="56">
+        <f t="shared" si="2"/>
+        <v>1036.8706510810807</v>
+      </c>
+      <c r="J28" s="110">
+        <f t="shared" si="3"/>
+        <v>63.129348918919277</v>
+      </c>
+      <c r="K28" s="111">
+        <f t="shared" si="4"/>
+        <v>-16.131029619256879</v>
+      </c>
+      <c r="L28" s="112">
+        <f t="shared" si="5"/>
+        <v>5.7390317199017528E-2</v>
+      </c>
+      <c r="M28" s="111"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="50">
         <v>3</v>
       </c>
-      <c r="J28" s="47">
+      <c r="R28" s="47">
         <v>3.96</v>
       </c>
-      <c r="K28" s="26">
+      <c r="S28" s="26">
         <v>200</v>
       </c>
-      <c r="L28" s="98"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
     </row>
-    <row r="29" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="65"/>
-      <c r="D29" s="103">
+    <row r="29" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C29" s="66"/>
+      <c r="D29" s="59">
         <v>1.5</v>
       </c>
       <c r="E29" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="51">
         <v>1160</v>
       </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="50">
+      <c r="G29" s="56">
+        <f t="shared" si="0"/>
+        <v>1046.6896786818252</v>
+      </c>
+      <c r="H29" s="110">
+        <f t="shared" si="1"/>
+        <v>113.31032131817483</v>
+      </c>
+      <c r="I29" s="56">
+        <f t="shared" si="2"/>
+        <v>1062.9706510810865</v>
+      </c>
+      <c r="J29" s="110">
+        <f t="shared" si="3"/>
+        <v>97.029348918913456</v>
+      </c>
+      <c r="K29" s="111">
+        <f t="shared" si="4"/>
+        <v>-16.280972399261373</v>
+      </c>
+      <c r="L29" s="112">
+        <f t="shared" si="5"/>
+        <v>8.3645990447339183E-2</v>
+      </c>
+      <c r="M29" s="111"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="50">
         <v>3</v>
       </c>
-      <c r="J29" s="47">
+      <c r="R29" s="47">
         <v>4.22</v>
       </c>
-      <c r="K29" s="26">
+      <c r="S29" s="26">
         <v>760</v>
       </c>
-      <c r="L29" s="98"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
     </row>
-    <row r="30" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="65" t="s">
+    <row r="30" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C30" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="103">
+      <c r="D30" s="59">
         <v>1.5</v>
       </c>
       <c r="E30" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="51">
         <v>780</v>
       </c>
-      <c r="G30" s="97"/>
-      <c r="H30" s="65" t="s">
+      <c r="G30" s="56">
+        <f t="shared" si="0"/>
+        <v>610.06534149382787</v>
+      </c>
+      <c r="H30" s="110">
+        <f t="shared" si="1"/>
+        <v>169.93465850617213</v>
+      </c>
+      <c r="I30" s="56">
+        <f t="shared" si="2"/>
+        <v>624.45465108107965</v>
+      </c>
+      <c r="J30" s="110">
+        <f t="shared" si="3"/>
+        <v>155.54534891892035</v>
+      </c>
+      <c r="K30" s="111">
+        <f t="shared" si="4"/>
+        <v>-14.389309587251773</v>
+      </c>
+      <c r="L30" s="112">
+        <f t="shared" si="5"/>
+        <v>0.19941711399861584</v>
+      </c>
+      <c r="M30" s="111"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="50">
+      <c r="Q30" s="50">
         <v>1.5</v>
       </c>
-      <c r="J30" s="41">
+      <c r="R30" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K30" s="92">
+      <c r="S30" s="51">
         <v>780</v>
       </c>
-      <c r="L30" s="98">
-        <f t="shared" ref="L30" si="15">_xlfn.STDEV.S(K30:K32)</f>
+      <c r="T30" s="62">
+        <f t="shared" ref="T30" si="21">_xlfn.STDEV.S(S30:S32)</f>
         <v>30.550504633038933</v>
       </c>
-      <c r="M30" s="75">
+      <c r="U30" s="61">
         <v>1.5</v>
       </c>
-      <c r="N30" s="75">
-        <f t="shared" ref="N30" si="16">MEDIAN(K30:K32)</f>
+      <c r="V30" s="61">
+        <f t="shared" ref="V30" si="22">MEDIAN(S30:S32)</f>
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="65"/>
-      <c r="D31" s="103">
+    <row r="31" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C31" s="66"/>
+      <c r="D31" s="59">
         <v>1.5</v>
       </c>
       <c r="E31" s="41">
         <v>4.16</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="51">
         <v>840</v>
       </c>
-      <c r="G31" s="97"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="50">
+      <c r="G31" s="56">
+        <f t="shared" si="0"/>
+        <v>729.91587956182775</v>
+      </c>
+      <c r="H31" s="110">
+        <f t="shared" si="1"/>
+        <v>110.08412043817225</v>
+      </c>
+      <c r="I31" s="56">
+        <f t="shared" si="2"/>
+        <v>744.73065108108131</v>
+      </c>
+      <c r="J31" s="110">
+        <f t="shared" si="3"/>
+        <v>95.269348918918695</v>
+      </c>
+      <c r="K31" s="111">
+        <f t="shared" si="4"/>
+        <v>-14.814771519253554</v>
+      </c>
+      <c r="L31" s="112">
+        <f t="shared" si="5"/>
+        <v>0.1134158915701413</v>
+      </c>
+      <c r="M31" s="111"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="50">
         <v>1.5</v>
       </c>
-      <c r="J31" s="41">
+      <c r="R31" s="41">
         <v>4.16</v>
       </c>
-      <c r="K31" s="92">
+      <c r="S31" s="51">
         <v>840</v>
       </c>
-      <c r="L31" s="98"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
     </row>
-    <row r="32" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="65"/>
-      <c r="D32" s="103">
+    <row r="32" spans="3:24" ht="18" x14ac:dyDescent="0.35">
+      <c r="C32" s="66"/>
+      <c r="D32" s="59">
         <v>1.5</v>
       </c>
       <c r="E32" s="41">
         <v>4.1100000000000003</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="51">
         <v>800</v>
       </c>
-      <c r="G32" s="97"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="50">
+      <c r="G32" s="56">
+        <f t="shared" si="0"/>
+        <v>630.83589265682895</v>
+      </c>
+      <c r="H32" s="110">
+        <f t="shared" si="1"/>
+        <v>169.16410734317105</v>
+      </c>
+      <c r="I32" s="56">
+        <f t="shared" si="2"/>
+        <v>645.29565108108363</v>
+      </c>
+      <c r="J32" s="110">
+        <f t="shared" si="3"/>
+        <v>154.70434891891637</v>
+      </c>
+      <c r="K32" s="111">
+        <f t="shared" si="4"/>
+        <v>-14.459758424254687</v>
+      </c>
+      <c r="L32" s="112">
+        <f t="shared" si="5"/>
+        <v>0.19338043614864545</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="107"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="50">
         <v>1.5</v>
       </c>
-      <c r="J32" s="41">
+      <c r="R32" s="41">
         <v>4.1100000000000003</v>
       </c>
-      <c r="K32" s="92">
+      <c r="S32" s="51">
         <v>800</v>
       </c>
-      <c r="L32" s="98"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
     </row>
-    <row r="33" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="66" t="s">
+    <row r="33" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C33" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="104">
-        <v>0</v>
+      <c r="D33" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E33" s="47">
         <v>4.7149999999999999</v>
@@ -21545,11 +22363,37 @@
       <c r="F33" s="26">
         <v>1240</v>
       </c>
+      <c r="G33" s="56">
+        <f t="shared" si="0"/>
+        <v>1230.9870570371932</v>
+      </c>
+      <c r="H33" s="110">
+        <f t="shared" si="1"/>
+        <v>9.0129429628068465</v>
+      </c>
+      <c r="I33" s="56">
+        <f t="shared" si="2"/>
+        <v>1249.9167462802434</v>
+      </c>
+      <c r="J33" s="110">
+        <f t="shared" si="3"/>
+        <v>9.9167462802433874</v>
+      </c>
+      <c r="K33" s="111">
+        <f t="shared" si="4"/>
+        <v>0.90380331743654096</v>
+      </c>
+      <c r="L33" s="112">
+        <f t="shared" si="5"/>
+        <v>7.9973760324543453E-3</v>
+      </c>
+      <c r="M33" s="111"/>
+      <c r="N33" s="105"/>
     </row>
-    <row r="34" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="67"/>
-      <c r="D34" s="105">
-        <v>0</v>
+    <row r="34" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="68"/>
+      <c r="D34" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E34" s="47">
         <v>4.742</v>
@@ -21557,11 +22401,37 @@
       <c r="F34" s="26">
         <v>1240</v>
       </c>
+      <c r="G34" s="56">
+        <f t="shared" si="0"/>
+        <v>1233.50275970035</v>
+      </c>
+      <c r="H34" s="110">
+        <f t="shared" si="1"/>
+        <v>6.4972402996500023</v>
+      </c>
+      <c r="I34" s="56">
+        <f t="shared" si="2"/>
+        <v>1252.6537362802337</v>
+      </c>
+      <c r="J34" s="110">
+        <f t="shared" si="3"/>
+        <v>12.653736280233716</v>
+      </c>
+      <c r="K34" s="111">
+        <f t="shared" si="4"/>
+        <v>6.1564959805837134</v>
+      </c>
+      <c r="L34" s="112">
+        <f t="shared" si="5"/>
+        <v>1.0204626032446545E-2</v>
+      </c>
+      <c r="M34" s="111"/>
+      <c r="N34" s="105"/>
     </row>
-    <row r="35" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="68"/>
-      <c r="D35" s="106">
-        <v>0</v>
+    <row r="35" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C35" s="69"/>
+      <c r="D35" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E35" s="47">
         <v>4.734</v>
@@ -21569,13 +22439,39 @@
       <c r="F35" s="26">
         <v>1200</v>
       </c>
+      <c r="G35" s="56">
+        <f t="shared" si="0"/>
+        <v>1232.9991866101263</v>
+      </c>
+      <c r="H35" s="110">
+        <f t="shared" si="1"/>
+        <v>32.999186610126344</v>
+      </c>
+      <c r="I35" s="56">
+        <f t="shared" si="2"/>
+        <v>1252.0844562802449</v>
+      </c>
+      <c r="J35" s="110">
+        <f t="shared" si="3"/>
+        <v>52.084456280244922</v>
+      </c>
+      <c r="K35" s="111">
+        <f t="shared" si="4"/>
+        <v>19.085269670118578</v>
+      </c>
+      <c r="L35" s="112">
+        <f t="shared" si="5"/>
+        <v>4.3403713566870769E-2</v>
+      </c>
+      <c r="M35" s="111"/>
+      <c r="N35" s="105"/>
     </row>
-    <row r="36" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="65" t="s">
+    <row r="36" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C36" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="103">
-        <v>0</v>
+      <c r="D36" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E36" s="47">
         <v>4.7839999999999998</v>
@@ -21583,14 +22479,54 @@
       <c r="F36" s="26">
         <v>1210</v>
       </c>
-      <c r="L36" s="100" t="s">
-        <v>118</v>
+      <c r="G36" s="56">
+        <f t="shared" si="0"/>
+        <v>1232.8055801871233</v>
+      </c>
+      <c r="H36" s="110">
+        <f t="shared" si="1"/>
+        <v>22.805580187123269</v>
+      </c>
+      <c r="I36" s="56">
+        <f t="shared" si="2"/>
+        <v>1252.3034562802422</v>
+      </c>
+      <c r="J36" s="110">
+        <f t="shared" si="3"/>
+        <v>42.303456280242244</v>
+      </c>
+      <c r="K36" s="111">
+        <f t="shared" si="4"/>
+        <v>19.497876093118975</v>
+      </c>
+      <c r="L36" s="112">
+        <f t="shared" si="5"/>
+        <v>3.4961534115902679E-2</v>
+      </c>
+      <c r="M36" s="111"/>
+      <c r="N36" s="105"/>
+      <c r="P36">
+        <v>-34000</v>
+      </c>
+      <c r="Q36" s="56">
+        <v>-34686.089399999997</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36" s="15">
+        <f>Q36*R36</f>
+        <v>-34686.089399999997</v>
+      </c>
+      <c r="T36" s="15">
+        <f>P36*R36</f>
+        <v>-34000</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="65"/>
-      <c r="D37" s="103">
-        <v>0</v>
+    <row r="37" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C37" s="66"/>
+      <c r="D37" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E37" s="47">
         <v>4.7839999999999998</v>
@@ -21598,25 +22534,55 @@
       <c r="F37" s="26">
         <v>1200</v>
       </c>
-      <c r="I37" s="99">
-        <v>-42188.142200000002</v>
-      </c>
-      <c r="K37" s="99">
-        <f>I37</f>
-        <v>-42188.142200000002</v>
-      </c>
-      <c r="L37">
-        <v>-42000</v>
-      </c>
-      <c r="N37" s="99">
-        <f>L37</f>
-        <v>-42000</v>
-      </c>
+      <c r="G37" s="56">
+        <f t="shared" si="0"/>
+        <v>1232.8055801871233</v>
+      </c>
+      <c r="H37" s="110">
+        <f t="shared" si="1"/>
+        <v>32.805580187123269</v>
+      </c>
+      <c r="I37" s="56">
+        <f t="shared" si="2"/>
+        <v>1252.3034562802422</v>
+      </c>
+      <c r="J37" s="110">
+        <f t="shared" si="3"/>
+        <v>52.303456280242244</v>
+      </c>
+      <c r="K37" s="111">
+        <f t="shared" si="4"/>
+        <v>19.497876093118975</v>
+      </c>
+      <c r="L37" s="112">
+        <f t="shared" si="5"/>
+        <v>4.3586213566868537E-2</v>
+      </c>
+      <c r="M37" s="111"/>
+      <c r="N37" s="105"/>
+      <c r="P37">
+        <v>-21</v>
+      </c>
+      <c r="Q37" s="56">
+        <v>-21.6703543</v>
+      </c>
+      <c r="R37">
+        <v>1.5</v>
+      </c>
+      <c r="S37" s="56">
+        <f>Q37*R37</f>
+        <v>-32.505531449999999</v>
+      </c>
+      <c r="T37" s="15">
+        <f t="shared" ref="T37:T40" si="23">P37*R37</f>
+        <v>-31.5</v>
+      </c>
+      <c r="V37" s="56"/>
     </row>
-    <row r="38" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="65"/>
-      <c r="D38" s="103">
-        <v>0</v>
+    <row r="38" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C38" s="66"/>
+      <c r="D38" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E38" s="47">
         <v>4.7640000000000002</v>
@@ -21624,169 +22590,236 @@
       <c r="F38" s="26">
         <v>1200</v>
       </c>
-      <c r="I38" s="99">
-        <v>-20.025777300000001</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38" s="99">
-        <f>I38*J38</f>
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>-20</v>
-      </c>
-      <c r="M38" s="42">
-        <v>0</v>
-      </c>
-      <c r="N38" s="99">
-        <f>L38*M38</f>
-        <v>0</v>
-      </c>
+      <c r="G38" s="56">
+        <f t="shared" si="0"/>
+        <v>1233.8375765383244</v>
+      </c>
+      <c r="H38" s="110">
+        <f t="shared" si="1"/>
+        <v>33.837576538324356</v>
+      </c>
+      <c r="I38" s="56">
+        <f t="shared" si="2"/>
+        <v>1253.1698562802412</v>
+      </c>
+      <c r="J38" s="110">
+        <f t="shared" si="3"/>
+        <v>53.16985628024122</v>
+      </c>
+      <c r="K38" s="111">
+        <f t="shared" si="4"/>
+        <v>19.332279741916864</v>
+      </c>
+      <c r="L38" s="112">
+        <f t="shared" si="5"/>
+        <v>4.4308213566867684E-2</v>
+      </c>
+      <c r="M38" s="111"/>
+      <c r="N38" s="105"/>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="56">
+        <v>10.090458</v>
+      </c>
+      <c r="R38">
+        <f>LN(R37)</f>
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="S38" s="56">
+        <f t="shared" ref="S38:S40" si="24">Q38*R38</f>
+        <v>4.0913286438308925</v>
+      </c>
+      <c r="T38" s="15">
+        <f t="shared" si="23"/>
+        <v>4.0546510810816443</v>
+      </c>
+      <c r="V38" s="56"/>
     </row>
-    <row r="39" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="66" t="s">
+    <row r="39" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C39" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="104">
-        <v>0</v>
+      <c r="D39" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E39" s="41">
         <v>4.74</v>
       </c>
-      <c r="F39" s="92">
+      <c r="F39" s="51">
         <v>1260</v>
       </c>
-      <c r="I39" s="99">
-        <v>18662.462800000001</v>
-      </c>
-      <c r="J39">
-        <v>4.7</v>
-      </c>
-      <c r="K39" s="99">
-        <f t="shared" ref="K39:K40" si="17">I39*J39</f>
-        <v>87713.575160000008</v>
-      </c>
-      <c r="L39">
-        <v>19000</v>
-      </c>
-      <c r="M39" s="42">
-        <v>4.7</v>
-      </c>
-      <c r="N39" s="99">
-        <f t="shared" ref="N39" si="18">L39*M39</f>
-        <v>89300</v>
-      </c>
+      <c r="G39" s="56">
+        <f t="shared" si="0"/>
+        <v>1233.395957503446</v>
+      </c>
+      <c r="H39" s="110">
+        <f t="shared" si="1"/>
+        <v>26.60404249655403</v>
+      </c>
+      <c r="I39" s="56">
+        <f t="shared" si="2"/>
+        <v>1252.5304962802475</v>
+      </c>
+      <c r="J39" s="110">
+        <f t="shared" si="3"/>
+        <v>7.469503719752538</v>
+      </c>
+      <c r="K39" s="111">
+        <f t="shared" si="4"/>
+        <v>-19.134538776801492</v>
+      </c>
+      <c r="L39" s="112">
+        <f t="shared" si="5"/>
+        <v>5.9281775553591569E-3</v>
+      </c>
+      <c r="M39" s="111"/>
+      <c r="N39" s="108"/>
+      <c r="P39">
+        <v>15000</v>
+      </c>
+      <c r="Q39" s="56">
+        <v>15138.5327</v>
+      </c>
+      <c r="R39">
+        <v>4.5</v>
+      </c>
+      <c r="S39" s="56">
+        <f t="shared" si="24"/>
+        <v>68123.397150000004</v>
+      </c>
+      <c r="T39" s="15">
+        <f t="shared" si="23"/>
+        <v>67500</v>
+      </c>
+      <c r="V39" s="56"/>
     </row>
-    <row r="40" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="67"/>
-      <c r="D40" s="105">
-        <v>0</v>
+    <row r="40" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C40" s="68"/>
+      <c r="D40" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E40" s="41">
         <v>4.72</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="51">
         <v>1200</v>
       </c>
-      <c r="I40" s="99">
-        <v>-2004.05576</v>
-      </c>
-      <c r="J40">
-        <f>J39^2</f>
-        <v>22.090000000000003</v>
-      </c>
-      <c r="K40" s="99">
-        <f>I40*J40</f>
-        <v>-44269.591738400006</v>
-      </c>
-      <c r="L40">
-        <v>-2000</v>
-      </c>
-      <c r="M40" s="42">
-        <f>M39^2</f>
-        <v>22.090000000000003</v>
-      </c>
-      <c r="N40" s="99">
-        <f>L40*M40</f>
-        <v>-44180.000000000007</v>
-      </c>
+      <c r="G40" s="56">
+        <f t="shared" si="0"/>
+        <v>1231.6279294274427</v>
+      </c>
+      <c r="H40" s="110">
+        <f t="shared" si="1"/>
+        <v>31.627929427442723</v>
+      </c>
+      <c r="I40" s="56">
+        <f t="shared" si="2"/>
+        <v>1250.5984962802468</v>
+      </c>
+      <c r="J40" s="110">
+        <f t="shared" si="3"/>
+        <v>50.598496280246763</v>
+      </c>
+      <c r="K40" s="111">
+        <f t="shared" si="4"/>
+        <v>18.970566852804041</v>
+      </c>
+      <c r="L40" s="112">
+        <f t="shared" si="5"/>
+        <v>4.2165413566872305E-2</v>
+      </c>
+      <c r="M40" s="111"/>
+      <c r="N40" s="108"/>
+      <c r="P40">
+        <v>-1600</v>
+      </c>
+      <c r="Q40" s="56">
+        <v>-1590.9229700000001</v>
+      </c>
+      <c r="R40">
+        <f>R39^2</f>
+        <v>20.25</v>
+      </c>
+      <c r="S40" s="56">
+        <f t="shared" si="24"/>
+        <v>-32216.190142500003</v>
+      </c>
+      <c r="T40" s="15">
+        <f t="shared" si="23"/>
+        <v>-32400</v>
+      </c>
+      <c r="V40" s="56"/>
     </row>
-    <row r="41" spans="3:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="68"/>
-      <c r="D41" s="106">
-        <v>0</v>
+    <row r="41" spans="3:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="C41" s="69"/>
+      <c r="D41" s="59">
+        <v>1E-4</v>
       </c>
       <c r="E41" s="41">
         <v>4.7699999999999996</v>
       </c>
-      <c r="F41" s="92">
+      <c r="F41" s="51">
         <v>1340</v>
       </c>
-      <c r="K41" s="99">
-        <f>SUM(K37:K40)</f>
-        <v>1255.8412215999997</v>
-      </c>
-      <c r="N41" s="99">
-        <f>SUM(N37:N40)</f>
-        <v>3119.9999999999927</v>
+      <c r="G41" s="56">
+        <f t="shared" si="0"/>
+        <v>1233.6616151624403</v>
+      </c>
+      <c r="H41" s="110">
+        <f t="shared" si="1"/>
+        <v>106.33838483755972</v>
+      </c>
+      <c r="I41" s="56">
+        <f t="shared" si="2"/>
+        <v>1253.0434962802392</v>
+      </c>
+      <c r="J41" s="110">
+        <f t="shared" si="3"/>
+        <v>86.956503719760804</v>
+      </c>
+      <c r="K41" s="111">
+        <f t="shared" si="4"/>
+        <v>-19.381881117798912</v>
+      </c>
+      <c r="L41" s="112">
+        <f t="shared" si="5"/>
+        <v>6.4892913223702095E-2</v>
+      </c>
+      <c r="M41" s="111"/>
+      <c r="N41" s="108"/>
+      <c r="S41" s="56">
+        <f>SUM(S36:S40)</f>
+        <v>1192.7034046938352</v>
+      </c>
+      <c r="T41" s="56">
+        <f>SUM(T36:T40)</f>
+        <v>1072.5546510810818</v>
+      </c>
+      <c r="V41" s="56"/>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="L42" s="112">
+        <f>AVERAGE(L3:L41)</f>
+        <v>0.11526450517178133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N24:N26"/>
-    <mergeCell ref="N27:N29"/>
-    <mergeCell ref="N30:N32"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="M15:M17"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="G6:G14"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="G24:G32"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C41"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="P30:P32"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="C18:C20"/>
@@ -21794,170 +22827,208 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="O6:O14"/>
+    <mergeCell ref="O15:O23"/>
+    <mergeCell ref="O24:O32"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="T24:T26"/>
+    <mergeCell ref="T27:T29"/>
+    <mergeCell ref="T30:T32"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="V21:V23"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="V24:V26"/>
+    <mergeCell ref="V27:V29"/>
+    <mergeCell ref="V30:V32"/>
+    <mergeCell ref="W27:W29"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="U24:U26"/>
+    <mergeCell ref="U27:U29"/>
+    <mergeCell ref="U30:U32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AS75"/>
   <sheetViews>
     <sheetView topLeftCell="B25" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
       <selection activeCell="F40" sqref="F40:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11" style="94" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11" style="53" customWidth="1"/>
     <col min="13" max="14" width="11" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.5703125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="23" max="24" width="12.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="9.5703125" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12.54296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" customWidth="1"/>
+    <col min="21" max="21" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.54296875" customWidth="1"/>
+    <col min="23" max="24" width="12.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" customWidth="1"/>
+    <col min="27" max="27" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.54296875" customWidth="1"/>
+    <col min="31" max="31" width="14.453125" customWidth="1"/>
+    <col min="34" max="34" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="1:45" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
       <c r="W1" s="23"/>
       <c r="X1" s="23"/>
     </row>
-    <row r="2" spans="1:45" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="90" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="80"/>
-      <c r="O2" s="82" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53" t="s">
+      <c r="R2" s="72"/>
+      <c r="S2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53" t="s">
+      <c r="T2" s="72"/>
+      <c r="U2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53" t="s">
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53" t="s">
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="53"/>
-      <c r="AD2" s="82" t="s">
+      <c r="AB2" s="72"/>
+      <c r="AD2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="82" t="s">
+      <c r="AE2" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="82" t="s">
+      <c r="AF2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="82" t="s">
+      <c r="AG2" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="82" t="s">
+      <c r="AH2" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AI2" s="82" t="s">
+      <c r="AI2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AJ2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="80"/>
+      <c r="AK2" s="93"/>
     </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+    <row r="3" spans="1:45" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="18" t="s">
         <v>86</v>
       </c>
@@ -21970,15 +23041,15 @@
       <c r="K3" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="91"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="4" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
       <c r="Q3" s="11" t="s">
         <v>68</v>
       </c>
@@ -22016,12 +23087,12 @@
         <v>69</v>
       </c>
       <c r="AC3" s="19"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
       <c r="AJ3" s="5" t="s">
         <v>65</v>
       </c>
@@ -22030,14 +23101,14 @@
       </c>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4" s="42">
         <v>0.1</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="66">
         <v>0</v>
       </c>
       <c r="D4" s="4">
@@ -22050,7 +23121,7 @@
         <f>E4</f>
         <v>4.76</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="87">
         <f>AVERAGE(F4:F6)</f>
         <v>4.7766666666666664</v>
       </c>
@@ -22058,7 +23129,7 @@
         <f t="shared" ref="H4:H24" si="0">$L$43-(E4-F4)</f>
         <v>0.81</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="87">
         <f>AVERAGE(H4:H6)</f>
         <v>0.81</v>
       </c>
@@ -22066,7 +23137,7 @@
         <f t="shared" ref="J4:J24" si="1">$L$43-(E4-F4)-($E$43-E4)</f>
         <v>0.81</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="87">
         <f>AVERAGE(J4:J6)</f>
         <v>0.82666666666666666</v>
       </c>
@@ -22081,7 +23152,7 @@
         <f>L4*1.015</f>
         <v>1258.5999999999999</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="87">
         <f>AVERAGE(L4:L6)</f>
         <v>1220</v>
       </c>
@@ -22172,12 +23243,12 @@
       </c>
       <c r="AL4" s="15"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>0.1</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="4">
         <v>2</v>
       </c>
@@ -22188,17 +23259,17 @@
         <f>E5</f>
         <v>4.7699999999999996</v>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="I5" s="61"/>
+      <c r="I5" s="87"/>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
         <v>0.81999999999999984</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="87"/>
       <c r="L5" s="26">
         <v>1220</v>
       </c>
@@ -22210,7 +23281,7 @@
         <f t="shared" ref="N5:N39" si="4">L5*1.015</f>
         <v>1238.3</v>
       </c>
-      <c r="O5" s="61"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="6">
         <f t="shared" ref="P5:P53" si="5">L5/1.5</f>
         <v>813.33333333333337</v>
@@ -22298,12 +23369,12 @@
       </c>
       <c r="AL5" s="15"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6" s="42">
         <v>0.1</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
       <c r="D6" s="4">
         <v>3</v>
       </c>
@@ -22314,17 +23385,17 @@
         <f>E6</f>
         <v>4.8</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>0.81</v>
       </c>
-      <c r="I6" s="61"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="87"/>
       <c r="L6" s="26">
         <v>1200</v>
       </c>
@@ -22336,7 +23407,7 @@
         <f t="shared" si="4"/>
         <v>1217.9999999999998</v>
       </c>
-      <c r="O6" s="61"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="6">
         <f t="shared" si="5"/>
         <v>800</v>
@@ -22424,14 +23495,14 @@
       </c>
       <c r="AL6" s="15"/>
     </row>
-    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>0.2</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="66">
         <v>0</v>
       </c>
       <c r="D7" s="4">
@@ -22443,7 +23514,7 @@
       <c r="F7" s="6">
         <v>4.508</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="87">
         <f>AVERAGE(F7:F9)</f>
         <v>4.5386666666666668</v>
       </c>
@@ -22451,7 +23522,7 @@
         <f t="shared" si="0"/>
         <v>0.57100000000000017</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="87">
         <f>AVERAGE(H7:H9)</f>
         <v>0.59300000000000008</v>
       </c>
@@ -22459,7 +23530,7 @@
         <f t="shared" si="1"/>
         <v>0.55800000000000027</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="87">
         <f>AVERAGE(J7:J9)</f>
         <v>0.58866666666666678</v>
       </c>
@@ -22474,7 +23545,7 @@
         <f t="shared" si="4"/>
         <v>1004.8499999999999</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="87">
         <f>AVERAGE(L7:L9)</f>
         <v>1010</v>
       </c>
@@ -22482,10 +23553,10 @@
         <f t="shared" si="5"/>
         <v>660</v>
       </c>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="56"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="74"/>
       <c r="U7" s="16">
         <f t="shared" si="8"/>
         <v>950.89387720000047</v>
@@ -22494,10 +23565,10 @@
         <f t="shared" si="9"/>
         <v>-4.1125643710264725E-2</v>
       </c>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="56"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="74"/>
       <c r="AA7" s="16">
         <f t="shared" si="12"/>
         <v>954.26178719999734</v>
@@ -22540,12 +23611,12 @@
       </c>
       <c r="AL7" s="15"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8" s="42">
         <v>0.2</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="4">
         <v>5</v>
       </c>
@@ -22555,17 +23626,17 @@
       <c r="F8" s="6">
         <v>4.5789999999999997</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>0.621</v>
       </c>
-      <c r="I8" s="61"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>0.629</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="26">
         <v>1020</v>
       </c>
@@ -22577,15 +23648,15 @@
         <f t="shared" si="4"/>
         <v>1035.3</v>
       </c>
-      <c r="O8" s="61"/>
+      <c r="O8" s="87"/>
       <c r="P8" s="6">
         <f t="shared" si="5"/>
         <v>680</v>
       </c>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="76"/>
       <c r="U8" s="16">
         <f t="shared" si="8"/>
         <v>1043.8559593</v>
@@ -22594,10 +23665,10 @@
         <f t="shared" si="9"/>
         <v>2.2853688851858012E-2</v>
       </c>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="76"/>
       <c r="AA8" s="16">
         <f t="shared" si="12"/>
         <v>1047.2785393000013</v>
@@ -22640,12 +23711,12 @@
       </c>
       <c r="AL8" s="15"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>0.2</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="4">
         <v>6</v>
       </c>
@@ -22655,17 +23726,17 @@
       <c r="F9" s="6">
         <v>4.5289999999999999</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0.58700000000000019</v>
       </c>
-      <c r="I9" s="61"/>
+      <c r="I9" s="87"/>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>0.57900000000000018</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="87"/>
       <c r="L9" s="26">
         <v>1020</v>
       </c>
@@ -22677,15 +23748,15 @@
         <f t="shared" si="4"/>
         <v>1035.3</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="6">
         <f t="shared" si="5"/>
         <v>680</v>
       </c>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="76"/>
       <c r="U9" s="16">
         <f t="shared" si="8"/>
         <v>979.97803930000021</v>
@@ -22694,10 +23765,10 @@
         <f t="shared" si="9"/>
         <v>-4.0839650578892162E-2</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="76"/>
       <c r="AA9" s="16">
         <f t="shared" si="12"/>
         <v>983.3621192999999</v>
@@ -22740,14 +23811,14 @@
       </c>
       <c r="AL9" s="15"/>
     </row>
-    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42">
         <v>0.4</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="66">
         <v>0</v>
       </c>
       <c r="D10" s="4">
@@ -22759,7 +23830,7 @@
       <c r="F10" s="6">
         <v>4.3390000000000004</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10" s="87">
         <f>AVERAGE(F10:F12)</f>
         <v>4.344333333333334</v>
       </c>
@@ -22767,7 +23838,7 @@
         <f t="shared" si="0"/>
         <v>0.42500000000000027</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="87">
         <f>AVERAGE(H10:H12)</f>
         <v>0.40866666666666679</v>
       </c>
@@ -22775,7 +23846,7 @@
         <f t="shared" si="1"/>
         <v>0.38900000000000068</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="87">
         <f>AVERAGE(J10:J12)</f>
         <v>0.3943333333333337</v>
       </c>
@@ -22790,7 +23861,7 @@
         <f t="shared" si="4"/>
         <v>629.29999999999995</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="87">
         <f>AVERAGE(L10:L12)</f>
         <v>653.33333333333337</v>
       </c>
@@ -22798,10 +23869,10 @@
         <f t="shared" si="5"/>
         <v>413.33333333333331</v>
       </c>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="76"/>
       <c r="U10" s="16">
         <f t="shared" si="8"/>
         <v>668.26282330000129</v>
@@ -22810,10 +23881,10 @@
         <f t="shared" si="9"/>
         <v>7.2221320141184653E-2</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="76"/>
       <c r="AA10" s="16">
         <f t="shared" si="12"/>
         <v>671.50060329999542</v>
@@ -22855,20 +23926,20 @@
         <v>558.25</v>
       </c>
       <c r="AL10" s="15"/>
-      <c r="AO10" s="75" t="s">
+      <c r="AO10" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>0.4</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="4">
         <v>8</v>
       </c>
@@ -22878,17 +23949,17 @@
       <c r="F11" s="6">
         <v>4.3369999999999997</v>
       </c>
-      <c r="G11" s="61"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>0.37799999999999967</v>
       </c>
-      <c r="I11" s="61"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>0.38700000000000001</v>
       </c>
-      <c r="K11" s="61"/>
+      <c r="K11" s="87"/>
       <c r="L11" s="26">
         <v>620</v>
       </c>
@@ -22900,15 +23971,15 @@
         <f t="shared" si="4"/>
         <v>629.29999999999995</v>
       </c>
-      <c r="O11" s="61"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="6">
         <f t="shared" si="5"/>
         <v>413.33333333333331</v>
       </c>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="76"/>
       <c r="U11" s="16">
         <f t="shared" si="8"/>
         <v>664.40073370000016</v>
@@ -22917,10 +23988,10 @@
         <f t="shared" si="9"/>
         <v>6.6828243028474121E-2</v>
       </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="76"/>
       <c r="AA11" s="16">
         <f t="shared" si="12"/>
         <v>667.63697370000591</v>
@@ -22962,12 +24033,12 @@
         <v>1285.6666666666665</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A12" s="42">
         <v>0.4</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="4">
         <v>9</v>
       </c>
@@ -22977,17 +24048,17 @@
       <c r="F12" s="6">
         <v>4.3570000000000002</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>0.42300000000000049</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>0.40700000000000047</v>
       </c>
-      <c r="K12" s="61"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="26">
         <v>720</v>
       </c>
@@ -22999,15 +24070,15 @@
         <f t="shared" si="4"/>
         <v>730.8</v>
       </c>
-      <c r="O12" s="61"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="6">
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="76"/>
       <c r="U12" s="16">
         <f t="shared" si="8"/>
         <v>702.47705770000096</v>
@@ -23016,10 +24087,10 @@
         <f t="shared" si="9"/>
         <v>-2.4944504746349239E-2</v>
       </c>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="58"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="76"/>
       <c r="AA12" s="16">
         <f t="shared" si="12"/>
         <v>705.7286976999967</v>
@@ -23061,14 +24132,14 @@
         <v>1143.5666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>0.6</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="65">
+      <c r="C13" s="66">
         <v>0</v>
       </c>
       <c r="D13" s="4">
@@ -23080,7 +24151,7 @@
       <c r="F13" s="6">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13" s="87">
         <f>AVERAGE(F13:F15)</f>
         <v>4.1616666666666662</v>
       </c>
@@ -23088,7 +24159,7 @@
         <f t="shared" si="0"/>
         <v>0.2200000000000002</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="87">
         <f>AVERAGE(H13:H15)</f>
         <v>0.20866666666666664</v>
       </c>
@@ -23096,7 +24167,7 @@
         <f t="shared" si="1"/>
         <v>0.20000000000000062</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="87">
         <f>AVERAGE(J13:J15)</f>
         <v>0.21166666666666703</v>
       </c>
@@ -23111,7 +24182,7 @@
         <f t="shared" si="4"/>
         <v>243.59999999999997</v>
       </c>
-      <c r="O13" s="61">
+      <c r="O13" s="87">
         <f>AVERAGE(L13:L15)</f>
         <v>286.66666666666669</v>
       </c>
@@ -23119,10 +24190,10 @@
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="76"/>
       <c r="U13" s="16">
         <f t="shared" si="8"/>
         <v>249.83200000000159</v>
@@ -23131,10 +24202,10 @@
         <f t="shared" si="9"/>
         <v>3.9354446187844339E-2</v>
       </c>
-      <c r="W13" s="57"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="76"/>
       <c r="AA13" s="16">
         <f t="shared" si="12"/>
         <v>252.92425000000367</v>
@@ -23176,12 +24247,12 @@
         <v>818.76666666666654</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A14" s="42">
         <v>0.6</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="4">
         <v>11</v>
       </c>
@@ -23191,17 +24262,17 @@
       <c r="F14" s="6">
         <v>4.1459999999999999</v>
       </c>
-      <c r="G14" s="61"/>
+      <c r="G14" s="87"/>
       <c r="H14" s="6">
         <f t="shared" si="0"/>
         <v>0.18699999999999983</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="87"/>
       <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>0.19600000000000017</v>
       </c>
-      <c r="K14" s="61"/>
+      <c r="K14" s="87"/>
       <c r="L14" s="26">
         <v>280</v>
       </c>
@@ -23213,15 +24284,15 @@
         <f t="shared" si="4"/>
         <v>284.2</v>
       </c>
-      <c r="O14" s="61"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="6">
         <f t="shared" si="5"/>
         <v>186.66666666666666</v>
       </c>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="76"/>
       <c r="U14" s="16">
         <f t="shared" si="8"/>
         <v>239.80851680000046</v>
@@ -23230,10 +24301,10 @@
         <f t="shared" si="9"/>
         <v>-0.16759823102329219</v>
       </c>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="76"/>
       <c r="AA14" s="16">
         <f t="shared" si="12"/>
         <v>242.8976868000027</v>
@@ -23275,12 +24346,12 @@
         <v>1245.0666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>0.6</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="4">
         <v>12</v>
       </c>
@@ -23290,17 +24361,17 @@
       <c r="F15" s="6">
         <v>4.1890000000000001</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="87"/>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
         <v>0.21899999999999986</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="87"/>
       <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>0.23900000000000032</v>
       </c>
-      <c r="K15" s="61"/>
+      <c r="K15" s="87"/>
       <c r="L15" s="26">
         <v>340</v>
       </c>
@@ -23312,15 +24383,15 @@
         <f t="shared" si="4"/>
         <v>345.09999999999997</v>
       </c>
-      <c r="O15" s="61"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="6">
         <f t="shared" si="5"/>
         <v>226.66666666666666</v>
       </c>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="60"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="78"/>
       <c r="U15" s="16">
         <f t="shared" si="8"/>
         <v>345.02416330000085</v>
@@ -23329,10 +24400,10 @@
         <f t="shared" si="9"/>
         <v>1.4561772288488428E-2</v>
       </c>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="60"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="78"/>
       <c r="AA15" s="16">
         <f t="shared" si="12"/>
         <v>348.14644330000738</v>
@@ -23374,14 +24445,14 @@
         <v>1221.3833333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A16" s="42">
         <v>0.2</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="66">
         <v>0</v>
       </c>
       <c r="D16" s="4">
@@ -23393,7 +24464,7 @@
       <c r="F16" s="6">
         <v>4.53</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="87">
         <f>AVERAGE(F16:F18)</f>
         <v>4.4866666666666672</v>
       </c>
@@ -23401,7 +24472,7 @@
         <f t="shared" si="0"/>
         <v>0.64000000000000012</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="87">
         <f>AVERAGE(H16:H18)</f>
         <v>0.60333333333333339</v>
       </c>
@@ -23409,7 +24480,7 @@
         <f t="shared" si="1"/>
         <v>0.58000000000000052</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="87">
         <f>AVERAGE(J16:J18)</f>
         <v>0.53666666666666718</v>
       </c>
@@ -23424,7 +24495,7 @@
         <f t="shared" si="4"/>
         <v>913.49999999999989</v>
       </c>
-      <c r="O16" s="61">
+      <c r="O16" s="87">
         <f>AVERAGE(L16:L18)</f>
         <v>963.33333333333337</v>
       </c>
@@ -23432,8 +24503,8 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="16">
         <f>-1692.7*J16^2 + 2683.5*J16 + 159.75</f>
         <v>1146.7557200000006</v>
@@ -23442,10 +24513,10 @@
         <f t="shared" ref="T16:T24" si="18">1-(L16/S16)</f>
         <v>0.21517723059624283</v>
       </c>
-      <c r="U16" s="69"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="56"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
       <c r="Y16" s="16">
         <f t="shared" ref="Y16:Y24" si="19">-1692.7*F16^2 + 16056*F16 - 36850</f>
         <v>1147.9525700000013</v>
@@ -23454,8 +24525,8 @@
         <f t="shared" ref="Z16:Z24" si="20">1-(L16/Y16)</f>
         <v>0.21599548315833383</v>
       </c>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="70"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="80"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="12" t="str">
         <f>B40</f>
@@ -23491,12 +24562,12 @@
         <v>1285.6666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>0.2</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="4">
         <v>14</v>
       </c>
@@ -23506,17 +24577,17 @@
       <c r="F17" s="6">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="6">
         <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17" s="61"/>
+      <c r="I17" s="87"/>
       <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>0.53000000000000069</v>
       </c>
-      <c r="K17" s="61"/>
+      <c r="K17" s="87"/>
       <c r="L17" s="26">
         <v>910</v>
       </c>
@@ -23528,13 +24599,13 @@
         <f t="shared" si="4"/>
         <v>923.64999999999986</v>
       </c>
-      <c r="O17" s="61"/>
+      <c r="O17" s="87"/>
       <c r="P17" s="6">
         <f t="shared" si="5"/>
         <v>606.66666666666663</v>
       </c>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="58"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76"/>
       <c r="S17" s="16">
         <f t="shared" ref="S17:S24" si="23">-1692.7*J17^2 + 2683.5*J17 + 159.75</f>
         <v>1106.5255700000007</v>
@@ -23543,10 +24614,10 @@
         <f t="shared" si="18"/>
         <v>0.1776059906143882</v>
       </c>
-      <c r="U17" s="71"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="58"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="76"/>
       <c r="Y17" s="16">
         <f t="shared" si="19"/>
         <v>1107.713920000002</v>
@@ -23555,23 +24626,23 @@
         <f t="shared" si="20"/>
         <v>0.1784882508292408</v>
       </c>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="72"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="82"/>
       <c r="AC17" s="15"/>
-      <c r="AD17" s="75" t="s">
+      <c r="AD17" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="61"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="42">
         <v>0.2</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="4">
         <v>15</v>
       </c>
@@ -23581,17 +24652,17 @@
       <c r="F18" s="6">
         <v>4.45</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="87"/>
       <c r="H18" s="6">
         <f t="shared" si="0"/>
         <v>0.56999999999999984</v>
       </c>
-      <c r="I18" s="61"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>0.50000000000000044</v>
       </c>
-      <c r="K18" s="61"/>
+      <c r="K18" s="87"/>
       <c r="L18" s="26">
         <v>1080</v>
       </c>
@@ -23603,13 +24674,13 @@
         <f t="shared" si="4"/>
         <v>1096.1999999999998</v>
       </c>
-      <c r="O18" s="61"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="6">
         <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="58"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76"/>
       <c r="S18" s="16">
         <f t="shared" si="23"/>
         <v>1078.3250000000003</v>
@@ -23618,10 +24689,10 @@
         <f t="shared" si="18"/>
         <v>-1.5533350335008578E-3</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="58"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="76"/>
       <c r="Y18" s="16">
         <f t="shared" si="19"/>
         <v>1079.5082499999917</v>
@@ -23630,26 +24701,26 @@
         <f t="shared" si="20"/>
         <v>-4.5553148853505476E-4</v>
       </c>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="72"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="82"/>
       <c r="AC18" s="15"/>
-      <c r="AD18" s="75" t="s">
+      <c r="AD18" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>0.4</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="65">
+      <c r="C19" s="66">
         <v>0</v>
       </c>
       <c r="D19" s="4">
@@ -23661,7 +24732,7 @@
       <c r="F19" s="6">
         <v>4.3</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="87">
         <f>AVERAGE(F19:F21)</f>
         <v>4.32</v>
       </c>
@@ -23669,7 +24740,7 @@
         <f t="shared" si="0"/>
         <v>0.41999999999999948</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="87">
         <f>AVERAGE(H19:H21)</f>
         <v>0.41999999999999976</v>
       </c>
@@ -23677,7 +24748,7 @@
         <f t="shared" si="1"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="87">
         <f>AVERAGE(J19:J21)</f>
         <v>0.37000000000000027</v>
       </c>
@@ -23692,7 +24763,7 @@
         <f t="shared" si="4"/>
         <v>913.49999999999989</v>
       </c>
-      <c r="O19" s="61">
+      <c r="O19" s="87">
         <f>AVERAGE(L19:L21)</f>
         <v>933.33333333333337</v>
       </c>
@@ -23700,8 +24771,8 @@
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="58"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
       <c r="S19" s="16">
         <f t="shared" si="23"/>
         <v>891.61925000000019</v>
@@ -23710,10 +24781,10 @@
         <f t="shared" si="18"/>
         <v>-9.399471803687387E-3</v>
       </c>
-      <c r="U19" s="71"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="58"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="76"/>
       <c r="Y19" s="16">
         <f t="shared" si="19"/>
         <v>892.77700000000186</v>
@@ -23722,23 +24793,23 @@
         <f t="shared" si="20"/>
         <v>-8.0904862020394486E-3</v>
       </c>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="72"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="82"/>
       <c r="AC19" s="15"/>
-      <c r="AD19" s="75" t="s">
+      <c r="AD19" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="61"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42">
         <v>0.4</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="4">
         <v>17</v>
       </c>
@@ -23748,17 +24819,17 @@
       <c r="F20" s="6">
         <v>4.3</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="6">
         <f t="shared" si="0"/>
         <v>0.4099999999999997</v>
       </c>
-      <c r="I20" s="61"/>
+      <c r="I20" s="87"/>
       <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="K20" s="61"/>
+      <c r="K20" s="87"/>
       <c r="L20" s="26">
         <v>900</v>
       </c>
@@ -23770,13 +24841,13 @@
         <f t="shared" si="4"/>
         <v>913.49999999999989</v>
       </c>
-      <c r="O20" s="61"/>
+      <c r="O20" s="87"/>
       <c r="P20" s="6">
         <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76"/>
       <c r="S20" s="16">
         <f t="shared" si="23"/>
         <v>891.61925000000019</v>
@@ -23785,10 +24856,10 @@
         <f t="shared" si="18"/>
         <v>-9.399471803687387E-3</v>
       </c>
-      <c r="U20" s="71"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="58"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="76"/>
       <c r="Y20" s="16">
         <f t="shared" si="19"/>
         <v>892.77700000000186</v>
@@ -23797,23 +24868,23 @@
         <f t="shared" si="20"/>
         <v>-8.0904862020394486E-3</v>
       </c>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="72"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="82"/>
       <c r="AC20" s="15"/>
-      <c r="AD20" s="75" t="s">
+      <c r="AD20" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="61"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>0.4</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="4">
         <v>18</v>
       </c>
@@ -23823,17 +24894,17 @@
       <c r="F21" s="6">
         <v>4.3600000000000003</v>
       </c>
-      <c r="G21" s="61"/>
+      <c r="G21" s="87"/>
       <c r="H21" s="6">
         <f t="shared" si="0"/>
         <v>0.43000000000000016</v>
       </c>
-      <c r="I21" s="61"/>
+      <c r="I21" s="87"/>
       <c r="J21" s="6">
         <f t="shared" si="1"/>
         <v>0.41000000000000059</v>
       </c>
-      <c r="K21" s="61"/>
+      <c r="K21" s="87"/>
       <c r="L21" s="26">
         <v>1000</v>
       </c>
@@ -23845,13 +24916,13 @@
         <f t="shared" si="4"/>
         <v>1014.9999999999999</v>
       </c>
-      <c r="O21" s="61"/>
+      <c r="O21" s="87"/>
       <c r="P21" s="6">
         <f t="shared" si="5"/>
         <v>666.66666666666663</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76"/>
       <c r="S21" s="16">
         <f t="shared" si="23"/>
         <v>975.4421300000007</v>
@@ -23860,10 +24931,10 @@
         <f t="shared" si="18"/>
         <v>-2.5176142432969728E-2</v>
       </c>
-      <c r="U21" s="71"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="58"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="76"/>
       <c r="Y21" s="16">
         <f t="shared" si="19"/>
         <v>976.61007999999856</v>
@@ -23872,25 +24943,25 @@
         <f t="shared" si="20"/>
         <v>-2.3950111184600331E-2</v>
       </c>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="72"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="82"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="75" t="s">
+      <c r="AD21" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="42">
         <v>0.6</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="66">
         <v>0</v>
       </c>
       <c r="D22" s="4">
@@ -23902,7 +24973,7 @@
       <c r="F22" s="6">
         <v>4.21</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="87">
         <f>AVERAGE(F22:F24)</f>
         <v>4.13</v>
       </c>
@@ -23910,7 +24981,7 @@
         <f t="shared" si="0"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="87">
         <f>AVERAGE(H22:H24)</f>
         <v>0.21666666666666665</v>
       </c>
@@ -23918,7 +24989,7 @@
         <f t="shared" si="1"/>
         <v>0.26000000000000023</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="87">
         <f>AVERAGE(J22:J24)</f>
         <v>0.18000000000000016</v>
       </c>
@@ -23933,7 +25004,7 @@
         <f t="shared" si="4"/>
         <v>700.34999999999991</v>
       </c>
-      <c r="O22" s="61">
+      <c r="O22" s="87">
         <f>AVERAGE(L22:L24)</f>
         <v>550</v>
       </c>
@@ -23941,8 +25012,8 @@
         <f t="shared" si="5"/>
         <v>460</v>
       </c>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
       <c r="S22" s="16">
         <f t="shared" si="23"/>
         <v>743.0334800000004</v>
@@ -23951,10 +25022,10 @@
         <f t="shared" si="18"/>
         <v>7.1374280469838847E-2</v>
       </c>
-      <c r="U22" s="71"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="58"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="76"/>
       <c r="Y22" s="16">
         <f t="shared" si="19"/>
         <v>744.17592999999761</v>
@@ -23963,23 +25034,23 @@
         <f t="shared" si="20"/>
         <v>7.2799895583827601E-2</v>
       </c>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="72"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="82"/>
       <c r="AC22" s="15"/>
-      <c r="AD22" s="81" t="s">
+      <c r="AD22" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>0.6</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="4">
         <v>20</v>
       </c>
@@ -23989,17 +25060,17 @@
       <c r="F23" s="6">
         <v>3.96</v>
       </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>7.9999999999999627E-2</v>
       </c>
-      <c r="I23" s="61"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="6">
         <f t="shared" si="1"/>
         <v>1.0000000000000231E-2</v>
       </c>
-      <c r="K23" s="61"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="26">
         <v>200</v>
       </c>
@@ -24011,13 +25082,13 @@
         <f t="shared" si="4"/>
         <v>202.99999999999997</v>
       </c>
-      <c r="O23" s="61"/>
+      <c r="O23" s="87"/>
       <c r="P23" s="6">
         <f t="shared" si="5"/>
         <v>133.33333333333334</v>
       </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="58"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
       <c r="S23" s="16">
         <f t="shared" si="23"/>
         <v>186.41573000000062</v>
@@ -24026,10 +25097,10 @@
         <f t="shared" si="18"/>
         <v>-7.2870835524444955E-2</v>
       </c>
-      <c r="U23" s="71"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="58"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="76"/>
       <c r="Y23" s="16">
         <f t="shared" si="19"/>
         <v>187.51567999999679</v>
@@ -24038,23 +25109,23 @@
         <f t="shared" si="20"/>
         <v>-6.6577472347930655E-2</v>
       </c>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="72"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="82"/>
       <c r="AC23" s="15"/>
-      <c r="AD23" s="75" t="s">
+      <c r="AD23" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="61"/>
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="61"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="42">
         <v>0.6</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="4">
         <v>21</v>
       </c>
@@ -24064,17 +25135,17 @@
       <c r="F24" s="6">
         <v>4.22</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="87"/>
       <c r="H24" s="6">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-      <c r="I24" s="61"/>
+      <c r="I24" s="87"/>
       <c r="J24" s="6">
         <f t="shared" si="1"/>
         <v>0.27</v>
       </c>
-      <c r="K24" s="61"/>
+      <c r="K24" s="87"/>
       <c r="L24" s="26">
         <v>760</v>
       </c>
@@ -24086,13 +25157,13 @@
         <f t="shared" si="4"/>
         <v>771.4</v>
       </c>
-      <c r="O24" s="61"/>
+      <c r="O24" s="87"/>
       <c r="P24" s="6">
         <f t="shared" si="5"/>
         <v>506.66666666666669</v>
       </c>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="60"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="78"/>
       <c r="S24" s="16">
         <f t="shared" si="23"/>
         <v>760.89717000000007</v>
@@ -24101,10 +25172,10 @@
         <f t="shared" si="18"/>
         <v>1.179094936047731E-3</v>
       </c>
-      <c r="U24" s="73"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="60"/>
+      <c r="U24" s="83"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="78"/>
       <c r="Y24" s="16">
         <f t="shared" si="19"/>
         <v>762.04131999998935</v>
@@ -24113,25 +25184,25 @@
         <f t="shared" si="20"/>
         <v>2.6787523805000824E-3</v>
       </c>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="84"/>
       <c r="AC24" s="15"/>
-      <c r="AD24" s="75" t="s">
+      <c r="AD24" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="61"/>
     </row>
-    <row r="25" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42">
         <v>0.2</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="66">
         <v>0</v>
       </c>
       <c r="D25" s="43" t="s">
@@ -24143,7 +25214,7 @@
       <c r="F25" s="41">
         <v>4.5</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25" s="87">
         <f t="shared" ref="G25" si="24">AVERAGE(F25:F27)</f>
         <v>4.5333333333333341</v>
       </c>
@@ -24151,7 +25222,7 @@
         <f t="shared" ref="H25:H33" si="25">$L$43-(E25-F25)</f>
         <v>0.60999999999999988</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="87">
         <f t="shared" ref="I25" si="26">AVERAGE(H25:H27)</f>
         <v>0.61000000000000021</v>
       </c>
@@ -24159,11 +25230,11 @@
         <f t="shared" ref="J25:J33" si="27">$L$43-(E25-F25)-($E$43-E25)</f>
         <v>0.55000000000000027</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="87">
         <f t="shared" ref="K25" si="28">AVERAGE(J25:J27)</f>
         <v>0.58333333333333381</v>
       </c>
-      <c r="L25" s="92">
+      <c r="L25" s="51">
         <v>1260</v>
       </c>
       <c r="M25" s="16">
@@ -24174,7 +25245,7 @@
         <f t="shared" ref="N25:N33" si="30">L25*1.015</f>
         <v>1278.8999999999999</v>
       </c>
-      <c r="O25" s="61">
+      <c r="O25" s="87">
         <f t="shared" ref="O25" si="31">AVERAGE(L25:L27)</f>
         <v>1266.6666666666667</v>
       </c>
@@ -24190,8 +25261,8 @@
         <f t="shared" ref="R25:R33" si="34">1-($L25/Q25)</f>
         <v>-2.592433441632136E-2</v>
       </c>
-      <c r="S25" s="55"/>
-      <c r="T25" s="56"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="74"/>
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
       <c r="W25" s="34">
@@ -24202,25 +25273,25 @@
         <f>1-($L25/W25)</f>
         <v>-2.6413864733318082E-2</v>
       </c>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="70"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="80"/>
       <c r="AC25" s="15"/>
-      <c r="AD25" s="75" t="s">
+      <c r="AD25" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="61"/>
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
     </row>
-    <row r="26" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42">
         <v>0.2</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="43" t="s">
         <v>93</v>
       </c>
@@ -24230,18 +25301,18 @@
       <c r="F26" s="41">
         <v>4.53</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="34">
         <f t="shared" si="25"/>
         <v>0.60999999999999988</v>
       </c>
-      <c r="I26" s="61"/>
+      <c r="I26" s="87"/>
       <c r="J26" s="34">
         <f t="shared" si="27"/>
         <v>0.58000000000000052</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="92">
+      <c r="K26" s="87"/>
+      <c r="L26" s="51">
         <v>1280</v>
       </c>
       <c r="M26" s="16">
@@ -24252,7 +25323,7 @@
         <f t="shared" si="30"/>
         <v>1299.1999999999998</v>
       </c>
-      <c r="O26" s="61"/>
+      <c r="O26" s="87"/>
       <c r="P26" s="34">
         <f t="shared" si="32"/>
         <v>853.33333333333337</v>
@@ -24265,8 +25336,8 @@
         <f t="shared" ref="R26:R32" si="35">1-($L26/Q26)</f>
         <v>-3.2085839353323431E-2</v>
       </c>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="76"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
       <c r="W26" s="34">
@@ -24277,25 +25348,25 @@
         <f t="shared" ref="X26:X33" si="37">1-($L26/W26)</f>
         <v>-3.2574273733036563E-2</v>
       </c>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="72"/>
+      <c r="Y26" s="81"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="81"/>
+      <c r="AB26" s="82"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="75" t="s">
+      <c r="AD26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="61"/>
     </row>
-    <row r="27" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42">
         <v>0.2</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="43" t="s">
         <v>94</v>
       </c>
@@ -24305,18 +25376,18 @@
       <c r="F27" s="41">
         <v>4.57</v>
       </c>
-      <c r="G27" s="61"/>
+      <c r="G27" s="87"/>
       <c r="H27" s="34">
         <f t="shared" si="25"/>
         <v>0.61000000000000076</v>
       </c>
-      <c r="I27" s="61"/>
+      <c r="I27" s="87"/>
       <c r="J27" s="34">
         <f t="shared" si="27"/>
         <v>0.62000000000000055</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="92">
+      <c r="K27" s="87"/>
+      <c r="L27" s="51">
         <v>1260</v>
       </c>
       <c r="M27" s="16">
@@ -24327,7 +25398,7 @@
         <f t="shared" si="30"/>
         <v>1278.8999999999999</v>
       </c>
-      <c r="O27" s="61"/>
+      <c r="O27" s="87"/>
       <c r="P27" s="34">
         <f t="shared" si="32"/>
         <v>840</v>
@@ -24340,8 +25411,8 @@
         <f t="shared" si="34"/>
         <v>-6.8744593443750279E-3</v>
       </c>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="76"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
       <c r="W27" s="34">
@@ -24352,27 +25423,27 @@
         <f t="shared" si="37"/>
         <v>-7.3476658279536533E-3</v>
       </c>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="72"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="82"/>
       <c r="AC27" s="15"/>
-      <c r="AD27" s="75" t="s">
+      <c r="AD27" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AE27" s="75"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="75"/>
-      <c r="AH27" s="75"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="61"/>
+      <c r="AG27" s="61"/>
+      <c r="AH27" s="61"/>
     </row>
-    <row r="28" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42">
         <v>0.4</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="65">
+      <c r="C28" s="66">
         <v>0</v>
       </c>
       <c r="D28" s="43" t="s">
@@ -24384,7 +25455,7 @@
       <c r="F28" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28" s="87">
         <f t="shared" ref="G28" si="38">AVERAGE(F28:F30)</f>
         <v>4.3533333333333326</v>
       </c>
@@ -24392,7 +25463,7 @@
         <f t="shared" si="25"/>
         <v>0.41000000000000059</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="87">
         <f t="shared" ref="I28" si="39">AVERAGE(H28:H30)</f>
         <v>0.41000000000000031</v>
       </c>
@@ -24400,11 +25471,11 @@
         <f t="shared" si="27"/>
         <v>0.41000000000000059</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="87">
         <f t="shared" ref="K28" si="40">AVERAGE(J28:J30)</f>
         <v>0.40333333333333377</v>
       </c>
-      <c r="L28" s="92">
+      <c r="L28" s="51">
         <v>1120</v>
       </c>
       <c r="M28" s="16">
@@ -24415,7 +25486,7 @@
         <f t="shared" si="30"/>
         <v>1136.8</v>
       </c>
-      <c r="O28" s="61">
+      <c r="O28" s="87">
         <f t="shared" ref="O28" si="41">AVERAGE(L28:L30)</f>
         <v>1126.6666666666667</v>
       </c>
@@ -24431,8 +25502,8 @@
         <f t="shared" si="35"/>
         <v>9.3233552027860433E-3</v>
       </c>
-      <c r="S28" s="57"/>
-      <c r="T28" s="58"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="76"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
       <c r="W28" s="34">
@@ -24443,25 +25514,25 @@
         <f t="shared" si="37"/>
         <v>8.8134888589913585E-3</v>
       </c>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="72"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="82"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="75" t="s">
+      <c r="AD28" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AE28" s="75"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="75"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
     </row>
-    <row r="29" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42">
         <v>0.4</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="43" t="s">
         <v>96</v>
       </c>
@@ -24471,18 +25542,18 @@
       <c r="F29" s="41">
         <v>4.34</v>
       </c>
-      <c r="G29" s="61"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="34">
         <f t="shared" si="25"/>
         <v>0.4099999999999997</v>
       </c>
-      <c r="I29" s="61"/>
+      <c r="I29" s="87"/>
       <c r="J29" s="34">
         <f t="shared" si="27"/>
         <v>0.39000000000000012</v>
       </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="92">
+      <c r="K29" s="87"/>
+      <c r="L29" s="51">
         <v>1100</v>
       </c>
       <c r="M29" s="16">
@@ -24493,7 +25564,7 @@
         <f t="shared" si="30"/>
         <v>1116.5</v>
       </c>
-      <c r="O29" s="61"/>
+      <c r="O29" s="87"/>
       <c r="P29" s="34">
         <f t="shared" si="32"/>
         <v>733.33333333333337</v>
@@ -24506,8 +25577,8 @@
         <f t="shared" si="34"/>
         <v>9.9256127410620731E-3</v>
       </c>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="76"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
       <c r="W29" s="34">
@@ -24518,18 +25589,18 @@
         <f t="shared" si="37"/>
         <v>9.4076376544199869E-3</v>
       </c>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="72"/>
+      <c r="Y29" s="81"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="81"/>
+      <c r="AB29" s="82"/>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42">
         <v>0.4</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="43" t="s">
         <v>97</v>
       </c>
@@ -24539,18 +25610,18 @@
       <c r="F30" s="41">
         <v>4.3600000000000003</v>
       </c>
-      <c r="G30" s="61"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="34">
         <f t="shared" si="25"/>
         <v>0.41000000000000059</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="87"/>
       <c r="J30" s="34">
         <f t="shared" si="27"/>
         <v>0.41000000000000059</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="92">
+      <c r="K30" s="87"/>
+      <c r="L30" s="51">
         <v>1160</v>
       </c>
       <c r="M30" s="16">
@@ -24561,7 +25632,7 @@
         <f t="shared" si="30"/>
         <v>1177.3999999999999</v>
       </c>
-      <c r="O30" s="61"/>
+      <c r="O30" s="87"/>
       <c r="P30" s="34">
         <f t="shared" si="32"/>
         <v>773.33333333333337</v>
@@ -24574,8 +25645,8 @@
         <f t="shared" si="35"/>
         <v>-2.6057953539971646E-2</v>
       </c>
-      <c r="S30" s="57"/>
-      <c r="T30" s="58"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="76"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
       <c r="W30" s="34">
@@ -24586,20 +25657,20 @@
         <f t="shared" si="37"/>
         <v>-2.6586029396044708E-2</v>
       </c>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="72"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="82"/>
       <c r="AC30" s="15"/>
     </row>
-    <row r="31" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42">
         <v>0.6</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="66">
         <v>0</v>
       </c>
       <c r="D31" s="43" t="s">
@@ -24611,7 +25682,7 @@
       <c r="F31" s="41">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31" s="87">
         <f t="shared" ref="G31" si="43">AVERAGE(F31:F33)</f>
         <v>4.123333333333334</v>
       </c>
@@ -24619,7 +25690,7 @@
         <f t="shared" si="25"/>
         <v>0.20999999999999952</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="87">
         <f t="shared" ref="I31" si="44">AVERAGE(H31:H33)</f>
         <v>0.2100000000000001</v>
       </c>
@@ -24627,11 +25698,11 @@
         <f t="shared" si="27"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="87">
         <f t="shared" ref="K31" si="45">AVERAGE(J31:J33)</f>
         <v>0.17333333333333364</v>
       </c>
-      <c r="L31" s="92">
+      <c r="L31" s="51">
         <v>780</v>
       </c>
       <c r="M31" s="16">
@@ -24642,7 +25713,7 @@
         <f t="shared" si="30"/>
         <v>791.69999999999993</v>
       </c>
-      <c r="O31" s="61">
+      <c r="O31" s="87">
         <f t="shared" ref="O31" si="46">AVERAGE(L31:L33)</f>
         <v>806.66666666666663</v>
       </c>
@@ -24658,8 +25729,8 @@
         <f t="shared" si="34"/>
         <v>-1.5206293498091883E-2</v>
       </c>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="76"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
       <c r="W31" s="34">
@@ -24670,18 +25741,18 @@
         <f t="shared" si="37"/>
         <v>-1.5964977863702545E-2</v>
       </c>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="72"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="72"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="82"/>
       <c r="AC31" s="15"/>
     </row>
-    <row r="32" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42">
         <v>0.6</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="43" t="s">
         <v>99</v>
       </c>
@@ -24691,18 +25762,18 @@
       <c r="F32" s="41">
         <v>4.16</v>
       </c>
-      <c r="G32" s="61"/>
+      <c r="G32" s="87"/>
       <c r="H32" s="34">
         <f t="shared" si="25"/>
         <v>0.21000000000000041</v>
       </c>
-      <c r="I32" s="61"/>
+      <c r="I32" s="87"/>
       <c r="J32" s="34">
         <f t="shared" si="27"/>
         <v>0.21000000000000041</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="92">
+      <c r="K32" s="87"/>
+      <c r="L32" s="51">
         <v>840</v>
       </c>
       <c r="M32" s="16">
@@ -24713,7 +25784,7 @@
         <f t="shared" si="30"/>
         <v>852.59999999999991</v>
       </c>
-      <c r="O32" s="61"/>
+      <c r="O32" s="87"/>
       <c r="P32" s="34">
         <f t="shared" si="32"/>
         <v>560</v>
@@ -24726,8 +25797,8 @@
         <f t="shared" si="35"/>
         <v>3.7561709337610272E-2</v>
       </c>
-      <c r="S32" s="57"/>
-      <c r="T32" s="58"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="76"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40"/>
       <c r="W32" s="34">
@@ -24738,18 +25809,18 @@
         <f t="shared" si="37"/>
         <v>3.6926618210936346E-2</v>
       </c>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="72"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="82"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="82"/>
       <c r="AC32" s="15"/>
     </row>
-    <row r="33" spans="1:38" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" s="36" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42">
         <v>0.6</v>
       </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="43" t="s">
         <v>100</v>
       </c>
@@ -24759,18 +25830,18 @@
       <c r="F33" s="41">
         <v>4.1100000000000003</v>
       </c>
-      <c r="G33" s="61"/>
+      <c r="G33" s="87"/>
       <c r="H33" s="34">
         <f t="shared" si="25"/>
         <v>0.21000000000000041</v>
       </c>
-      <c r="I33" s="61"/>
+      <c r="I33" s="87"/>
       <c r="J33" s="34">
         <f t="shared" si="27"/>
         <v>0.16000000000000059</v>
       </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="92">
+      <c r="K33" s="87"/>
+      <c r="L33" s="51">
         <v>800</v>
       </c>
       <c r="M33" s="16">
@@ -24781,7 +25852,7 @@
         <f t="shared" si="30"/>
         <v>811.99999999999989</v>
       </c>
-      <c r="O33" s="61"/>
+      <c r="O33" s="87"/>
       <c r="P33" s="34">
         <f t="shared" si="32"/>
         <v>533.33333333333337</v>
@@ -24794,8 +25865,8 @@
         <f t="shared" si="34"/>
         <v>-1.7038341633551335E-2</v>
       </c>
-      <c r="S33" s="59"/>
-      <c r="T33" s="60"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="78"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
       <c r="W33" s="34">
@@ -24806,20 +25877,20 @@
         <f t="shared" si="37"/>
         <v>-1.7781106657065893E-2</v>
       </c>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="74"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="84"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="84"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A34" s="42">
         <v>0.1</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="67" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="4">
@@ -24832,7 +25903,7 @@
         <f t="shared" ref="F34:F39" si="47">E34</f>
         <v>4.7149999999999999</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34" s="87">
         <f>AVERAGE(F34:F36)</f>
         <v>4.7303333333333333</v>
       </c>
@@ -24840,7 +25911,7 @@
         <f t="shared" ref="H34:H42" si="48">$L$43-(E34-F34)</f>
         <v>0.81</v>
       </c>
-      <c r="I34" s="61">
+      <c r="I34" s="87">
         <f>AVERAGE(H34:H36)</f>
         <v>0.81</v>
       </c>
@@ -24848,7 +25919,7 @@
         <f t="shared" ref="J34:J42" si="49">$L$43-(E34-F34)-($E$43-E34)</f>
         <v>0.76500000000000012</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="87">
         <f>AVERAGE(J34:J36)</f>
         <v>0.78033333333333355</v>
       </c>
@@ -24863,7 +25934,7 @@
         <f t="shared" si="4"/>
         <v>1258.5999999999999</v>
       </c>
-      <c r="O34" s="61">
+      <c r="O34" s="87">
         <f>AVERAGE(L34:L36)</f>
         <v>1226.6666666666667</v>
       </c>
@@ -24884,12 +25955,12 @@
       <c r="AJ34" s="36"/>
       <c r="AK34" s="36"/>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A35" s="42">
         <v>0.1</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="4">
         <v>23</v>
       </c>
@@ -24900,17 +25971,17 @@
         <f t="shared" si="47"/>
         <v>4.742</v>
       </c>
-      <c r="G35" s="61"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="6">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I35" s="61"/>
+      <c r="I35" s="87"/>
       <c r="J35" s="6">
         <f t="shared" si="49"/>
         <v>0.79200000000000026</v>
       </c>
-      <c r="K35" s="61"/>
+      <c r="K35" s="87"/>
       <c r="L35" s="26">
         <v>1240</v>
       </c>
@@ -24922,7 +25993,7 @@
         <f t="shared" si="4"/>
         <v>1258.5999999999999</v>
       </c>
-      <c r="O35" s="61"/>
+      <c r="O35" s="87"/>
       <c r="P35" s="6">
         <f t="shared" si="5"/>
         <v>826.66666666666663</v>
@@ -24940,12 +26011,12 @@
       <c r="AJ35" s="36"/>
       <c r="AK35" s="36"/>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A36" s="42">
         <v>0.1</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="4">
         <v>24</v>
       </c>
@@ -24956,17 +26027,17 @@
         <f t="shared" si="47"/>
         <v>4.734</v>
       </c>
-      <c r="G36" s="61"/>
+      <c r="G36" s="87"/>
       <c r="H36" s="6">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I36" s="61"/>
+      <c r="I36" s="87"/>
       <c r="J36" s="6">
         <f t="shared" si="49"/>
         <v>0.78400000000000025</v>
       </c>
-      <c r="K36" s="61"/>
+      <c r="K36" s="87"/>
       <c r="L36" s="26">
         <v>1200</v>
       </c>
@@ -24978,7 +26049,7 @@
         <f t="shared" si="4"/>
         <v>1217.9999999999998</v>
       </c>
-      <c r="O36" s="61"/>
+      <c r="O36" s="87"/>
       <c r="P36" s="6">
         <f t="shared" si="5"/>
         <v>800</v>
@@ -24996,14 +26067,14 @@
       <c r="AJ36" s="36"/>
       <c r="AK36" s="36"/>
     </row>
-    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42">
         <v>0.1</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="4">
@@ -25016,7 +26087,7 @@
         <f t="shared" si="47"/>
         <v>4.7839999999999998</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37" s="87">
         <f>AVERAGE(F37:F39)</f>
         <v>4.7773333333333339</v>
       </c>
@@ -25024,7 +26095,7 @@
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I37" s="61">
+      <c r="I37" s="87">
         <f>AVERAGE(H37:H39)</f>
         <v>0.81</v>
       </c>
@@ -25032,7 +26103,7 @@
         <f t="shared" si="49"/>
         <v>0.83400000000000007</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="87">
         <f>AVERAGE(J37:J39)</f>
         <v>0.82733333333333359</v>
       </c>
@@ -25047,7 +26118,7 @@
         <f t="shared" si="4"/>
         <v>1228.1499999999999</v>
       </c>
-      <c r="O37" s="61">
+      <c r="O37" s="87">
         <f>AVERAGE(L37:L39)</f>
         <v>1203.3333333333333</v>
       </c>
@@ -25068,12 +26139,12 @@
       <c r="AJ37" s="36"/>
       <c r="AK37" s="36"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A38" s="42">
         <v>0.1</v>
       </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="4">
         <v>26</v>
       </c>
@@ -25084,17 +26155,17 @@
         <f t="shared" si="47"/>
         <v>4.7839999999999998</v>
       </c>
-      <c r="G38" s="61"/>
+      <c r="G38" s="87"/>
       <c r="H38" s="6">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I38" s="61"/>
+      <c r="I38" s="87"/>
       <c r="J38" s="6">
         <f t="shared" si="49"/>
         <v>0.83400000000000007</v>
       </c>
-      <c r="K38" s="61"/>
+      <c r="K38" s="87"/>
       <c r="L38" s="26">
         <v>1200</v>
       </c>
@@ -25106,7 +26177,7 @@
         <f t="shared" si="4"/>
         <v>1217.9999999999998</v>
       </c>
-      <c r="O38" s="61"/>
+      <c r="O38" s="87"/>
       <c r="P38" s="6">
         <f t="shared" si="5"/>
         <v>800</v>
@@ -25116,12 +26187,12 @@
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A39" s="42">
         <v>0.1</v>
       </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="4">
         <v>27</v>
       </c>
@@ -25132,17 +26203,17 @@
         <f t="shared" si="47"/>
         <v>4.7640000000000002</v>
       </c>
-      <c r="G39" s="61"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="6">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I39" s="61"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="6">
         <f t="shared" si="49"/>
         <v>0.8140000000000005</v>
       </c>
-      <c r="K39" s="61"/>
+      <c r="K39" s="87"/>
       <c r="L39" s="26">
         <v>1200</v>
       </c>
@@ -25154,7 +26225,7 @@
         <f t="shared" si="4"/>
         <v>1217.9999999999998</v>
       </c>
-      <c r="O39" s="61"/>
+      <c r="O39" s="87"/>
       <c r="P39" s="6">
         <f t="shared" si="5"/>
         <v>800</v>
@@ -25164,14 +26235,14 @@
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
     </row>
-    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42">
         <v>0.1</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="66" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -25183,7 +26254,7 @@
       <c r="F40" s="37">
         <v>4.74</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40" s="87">
         <f>AVERAGE(F40:F42)</f>
         <v>4.7433333333333332</v>
       </c>
@@ -25191,7 +26262,7 @@
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I40" s="61">
+      <c r="I40" s="87">
         <f>AVERAGE(H40:H42)</f>
         <v>0.81</v>
       </c>
@@ -25199,11 +26270,11 @@
         <f t="shared" si="49"/>
         <v>0.79000000000000048</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="87">
         <f>AVERAGE(J40:J42)</f>
         <v>0.79333333333333345</v>
       </c>
-      <c r="L40" s="92">
+      <c r="L40" s="51">
         <v>1260</v>
       </c>
       <c r="M40" s="16">
@@ -25214,7 +26285,7 @@
         <f>L40*1.015</f>
         <v>1278.8999999999999</v>
       </c>
-      <c r="O40" s="61">
+      <c r="O40" s="87">
         <f>AVERAGE(L40:L42)</f>
         <v>1266.6666666666667</v>
       </c>
@@ -25237,12 +26308,12 @@
       <c r="AC40" s="15"/>
       <c r="AL40" s="15"/>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A41" s="42">
         <v>0.1</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="65"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="43" t="s">
         <v>102</v>
       </c>
@@ -25252,18 +26323,18 @@
       <c r="F41" s="37">
         <v>4.72</v>
       </c>
-      <c r="G41" s="61"/>
+      <c r="G41" s="87"/>
       <c r="H41" s="34">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I41" s="61"/>
+      <c r="I41" s="87"/>
       <c r="J41" s="34">
         <f t="shared" si="49"/>
         <v>0.77</v>
       </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="92">
+      <c r="K41" s="87"/>
+      <c r="L41" s="51">
         <v>1200</v>
       </c>
       <c r="M41" s="16">
@@ -25274,7 +26345,7 @@
         <f t="shared" ref="N41:N42" si="51">L41*1.015</f>
         <v>1217.9999999999998</v>
       </c>
-      <c r="O41" s="61"/>
+      <c r="O41" s="87"/>
       <c r="P41" s="34">
         <f t="shared" ref="P41:P42" si="52">L41/1.5</f>
         <v>800</v>
@@ -25294,12 +26365,12 @@
       <c r="AC41" s="15"/>
       <c r="AL41" s="15"/>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A42" s="42">
         <v>0.1</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="65"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="43" t="s">
         <v>103</v>
       </c>
@@ -25309,18 +26380,18 @@
       <c r="F42" s="37">
         <v>4.7699999999999996</v>
       </c>
-      <c r="G42" s="61"/>
+      <c r="G42" s="87"/>
       <c r="H42" s="34">
         <f t="shared" si="48"/>
         <v>0.81</v>
       </c>
-      <c r="I42" s="61"/>
+      <c r="I42" s="87"/>
       <c r="J42" s="34">
         <f t="shared" si="49"/>
         <v>0.81999999999999984</v>
       </c>
-      <c r="K42" s="61"/>
-      <c r="L42" s="92">
+      <c r="K42" s="87"/>
+      <c r="L42" s="51">
         <v>1340</v>
       </c>
       <c r="M42" s="16">
@@ -25331,7 +26402,7 @@
         <f t="shared" si="51"/>
         <v>1360.1</v>
       </c>
-      <c r="O42" s="61"/>
+      <c r="O42" s="87"/>
       <c r="P42" s="34">
         <f t="shared" si="52"/>
         <v>893.33333333333337</v>
@@ -25351,21 +26422,21 @@
       <c r="AC42" s="15"/>
       <c r="AL42" s="15"/>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B43" s="88" t="s">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="B43" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
       <c r="E43" s="6">
         <v>4.76</v>
       </c>
-      <c r="F43" s="85" t="s">
+      <c r="F43" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="87"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="26">
@@ -25387,7 +26458,7 @@
       <c r="AA43" s="42"/>
       <c r="AB43" s="42"/>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D44" s="6" t="s">
         <v>14</v>
       </c>
@@ -25416,7 +26487,7 @@
       <c r="K44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="93">
+      <c r="L44" s="52">
         <f>MAX(L4:L42)</f>
         <v>1340</v>
       </c>
@@ -25436,7 +26507,7 @@
       <c r="AJ44" s="38"/>
       <c r="AK44" s="38"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D45" s="6" t="s">
         <v>77</v>
       </c>
@@ -25465,7 +26536,7 @@
       <c r="K45" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="93">
+      <c r="L45" s="52">
         <f>AVERAGE(L4:L42)</f>
         <v>962.56410256410254</v>
       </c>
@@ -25485,7 +26556,7 @@
       <c r="AJ45" s="38"/>
       <c r="AK45" s="38"/>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="D46" s="6" t="s">
         <v>15</v>
       </c>
@@ -25514,7 +26585,7 @@
       <c r="K46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="93">
+      <c r="L46" s="52">
         <f>MIN(L4:L42)</f>
         <v>200</v>
       </c>
@@ -25534,7 +26605,7 @@
       <c r="AJ46" s="38"/>
       <c r="AK46" s="38"/>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
@@ -25549,7 +26620,7 @@
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>20</v>
       </c>
@@ -25564,7 +26635,7 @@
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
         <v>17</v>
       </c>
@@ -25579,7 +26650,7 @@
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -25594,7 +26665,7 @@
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
@@ -25609,14 +26680,14 @@
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" s="84" t="s">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="B52" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
       <c r="M52" s="15"/>
       <c r="N52" s="15"/>
       <c r="P52" s="6">
@@ -25628,7 +26699,7 @@
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
         <v>51</v>
       </c>
@@ -25647,15 +26718,15 @@
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.35">
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>54</v>
       </c>
@@ -25667,44 +26738,44 @@
         <v>40.778410806194842</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B57" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="53" t="s">
+    <row r="59" spans="2:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="K59" s="53" t="s">
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="K59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
       <c r="R59" s="42"/>
       <c r="W59" s="42"/>
       <c r="X59" s="42"/>
     </row>
-    <row r="60" spans="2:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
+    <row r="60" spans="2:24" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
       <c r="D60" s="43" t="s">
         <v>109</v>
       </c>
@@ -25726,7 +26797,7 @@
       <c r="K60" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L60" s="95">
+      <c r="L60" s="54">
         <v>1.5</v>
       </c>
       <c r="M60" s="32">
@@ -25739,7 +26810,7 @@
       <c r="W60" s="42"/>
       <c r="X60" s="42"/>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B61" s="25">
         <f>E45</f>
         <v>4.7406666666666677</v>
@@ -25752,21 +26823,21 @@
         <f>-1739.7*B61^2 + 16111*B61 - 36043</f>
         <v>1236.0012694666657</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="25">
         <f t="shared" ref="F61:F75" si="53">-1692.7*B61^2 + 16056*B61 - 36850</f>
         <v>1224.5388636888893</v>
       </c>
-      <c r="G61" s="51"/>
+      <c r="G61" s="97"/>
       <c r="H61" s="6">
         <f t="shared" ref="H61:H75" si="54" xml:space="preserve"> -1512.7*B61^2 + 15056*B61 - 36177</f>
         <v>1202.1778770222154</v>
       </c>
-      <c r="I61" s="62"/>
+      <c r="I61" s="100"/>
       <c r="K61" s="6">
         <v>0.2</v>
       </c>
-      <c r="L61" s="96">
+      <c r="L61" s="55">
         <v>0</v>
       </c>
       <c r="M61" s="31">
@@ -25781,7 +26852,7 @@
       <c r="W61" s="42"/>
       <c r="X61" s="42"/>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B62" s="25">
         <f>B61-0.05</f>
         <v>4.6906666666666679</v>
@@ -25794,21 +26865,21 @@
         <f t="shared" ref="D62:D75" si="55">-1739.7*B62^2 + 16111*B62 - 36043</f>
         <v>1250.8357994666731</v>
       </c>
-      <c r="E62" s="54"/>
+      <c r="E62" s="99"/>
       <c r="F62" s="25">
         <f t="shared" si="53"/>
         <v>1219.9597603555667</v>
       </c>
-      <c r="G62" s="54"/>
+      <c r="G62" s="99"/>
       <c r="H62" s="6">
         <f t="shared" si="54"/>
         <v>1162.716773688895</v>
       </c>
-      <c r="I62" s="64"/>
+      <c r="I62" s="102"/>
       <c r="K62" s="6">
         <v>0.4</v>
       </c>
-      <c r="L62" s="96">
+      <c r="L62" s="55">
         <f>E69</f>
         <v>0.10103691888107069</v>
       </c>
@@ -25824,7 +26895,7 @@
       <c r="W62" s="42"/>
       <c r="X62" s="42"/>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B63" s="25">
         <f t="shared" ref="B63:B69" si="56">B62-0.05</f>
         <v>4.640666666666668</v>
@@ -25837,21 +26908,21 @@
         <f t="shared" si="55"/>
         <v>1256.9718294666673</v>
       </c>
-      <c r="E63" s="54"/>
+      <c r="E63" s="99"/>
       <c r="F63" s="25">
         <f t="shared" si="53"/>
         <v>1206.9171570222243</v>
       </c>
-      <c r="G63" s="54"/>
+      <c r="G63" s="99"/>
       <c r="H63" s="6">
         <f t="shared" si="54"/>
         <v>1115.6921703555563</v>
       </c>
-      <c r="I63" s="64"/>
+      <c r="I63" s="102"/>
       <c r="K63" s="6">
         <v>0.6</v>
       </c>
-      <c r="L63" s="96">
+      <c r="L63" s="55">
         <f>E73</f>
         <v>0.32045811746690633</v>
       </c>
@@ -25867,7 +26938,7 @@
       <c r="W63" s="42"/>
       <c r="X63" s="42"/>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B64" s="25">
         <f t="shared" si="56"/>
         <v>4.5906666666666682</v>
@@ -25880,19 +26951,19 @@
         <f t="shared" si="55"/>
         <v>1254.4093594666556</v>
       </c>
-      <c r="E64" s="52"/>
+      <c r="E64" s="98"/>
       <c r="F64" s="25">
         <f t="shared" si="53"/>
         <v>1185.4110536888838</v>
       </c>
-      <c r="G64" s="52"/>
+      <c r="G64" s="98"/>
       <c r="H64" s="6">
         <f t="shared" si="54"/>
         <v>1061.1040670222283</v>
       </c>
-      <c r="I64" s="63"/>
+      <c r="I64" s="101"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B65" s="25">
         <f t="shared" si="56"/>
         <v>4.5406666666666684</v>
@@ -25926,7 +26997,7 @@
         <v>0.16904770684743153</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B66" s="25">
         <f t="shared" si="56"/>
         <v>4.4906666666666686</v>
@@ -25939,19 +27010,19 @@
         <f t="shared" si="55"/>
         <v>1223.1889194666655</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="25">
         <f t="shared" si="53"/>
         <v>1117.0083470222235</v>
       </c>
-      <c r="G66" s="51"/>
+      <c r="G66" s="97"/>
       <c r="H66" s="6">
         <f t="shared" si="54"/>
         <v>929.23736035555339</v>
       </c>
-      <c r="I66" s="51"/>
+      <c r="I66" s="97"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B67" s="25">
         <f t="shared" si="56"/>
         <v>4.4406666666666688</v>
@@ -25964,19 +27035,19 @@
         <f t="shared" si="55"/>
         <v>1194.5309494666726</v>
       </c>
-      <c r="E67" s="54"/>
+      <c r="E67" s="99"/>
       <c r="F67" s="25">
         <f t="shared" si="53"/>
         <v>1070.1117436888817</v>
       </c>
-      <c r="G67" s="54"/>
+      <c r="G67" s="99"/>
       <c r="H67" s="6">
         <f t="shared" si="54"/>
         <v>851.95875702222838</v>
       </c>
-      <c r="I67" s="54"/>
+      <c r="I67" s="99"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B68" s="25">
         <f t="shared" si="56"/>
         <v>4.3906666666666689</v>
@@ -25989,19 +27060,19 @@
         <f t="shared" si="55"/>
         <v>1157.1744794666665</v>
       </c>
-      <c r="E68" s="52"/>
+      <c r="E68" s="98"/>
       <c r="F68" s="25">
         <f t="shared" si="53"/>
         <v>1014.7516403555637</v>
       </c>
-      <c r="G68" s="52"/>
+      <c r="G68" s="98"/>
       <c r="H68" s="6">
         <f t="shared" si="54"/>
         <v>767.11665368889226</v>
       </c>
-      <c r="I68" s="52"/>
+      <c r="I68" s="98"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B69" s="25">
         <f t="shared" si="56"/>
         <v>4.3406666666666691</v>
@@ -26035,7 +27106,7 @@
         <v>0.43875938556878691</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B70" s="25">
         <f t="shared" ref="B70:C75" si="58">B69-0.05</f>
         <v>4.2906666666666693</v>
@@ -26048,19 +27119,19 @@
         <f t="shared" si="55"/>
         <v>1056.3660394666658</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="97"/>
       <c r="F70" s="25">
         <f t="shared" si="53"/>
         <v>878.64093368889735</v>
       </c>
-      <c r="G70" s="51"/>
+      <c r="G70" s="97"/>
       <c r="H70" s="6">
         <f t="shared" si="54"/>
         <v>574.74194702223031</v>
       </c>
-      <c r="I70" s="51"/>
+      <c r="I70" s="97"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B71" s="25">
         <f t="shared" si="58"/>
         <v>4.2406666666666695</v>
@@ -26073,19 +27144,19 @@
         <f t="shared" si="55"/>
         <v>992.91406946667121</v>
       </c>
-      <c r="E71" s="54"/>
+      <c r="E71" s="99"/>
       <c r="F71" s="25">
         <f t="shared" si="53"/>
         <v>797.89033035555622</v>
       </c>
-      <c r="G71" s="54"/>
+      <c r="G71" s="99"/>
       <c r="H71" s="6">
         <f t="shared" si="54"/>
         <v>467.20934368889721</v>
       </c>
-      <c r="I71" s="54"/>
+      <c r="I71" s="99"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B72" s="25">
         <f t="shared" si="58"/>
         <v>4.1906666666666696</v>
@@ -26098,19 +27169,19 @@
         <f t="shared" si="55"/>
         <v>920.76359946667799</v>
       </c>
-      <c r="E72" s="52"/>
+      <c r="E72" s="98"/>
       <c r="F72" s="25">
         <f t="shared" si="53"/>
         <v>708.67622702221706</v>
       </c>
-      <c r="G72" s="52"/>
+      <c r="G72" s="98"/>
       <c r="H72" s="6">
         <f t="shared" si="54"/>
         <v>352.11324035556027</v>
       </c>
-      <c r="I72" s="52"/>
+      <c r="I72" s="98"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B73" s="25">
         <f t="shared" si="58"/>
         <v>4.1406666666666698</v>
@@ -26144,7 +27215,7 @@
         <v>0.80913503616404192</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B74" s="25">
         <f t="shared" si="58"/>
         <v>4.09066666666667</v>
@@ -26157,19 +27228,19 @@
         <f t="shared" si="55"/>
         <v>750.36715946666664</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="97"/>
       <c r="F74" s="25">
         <f t="shared" si="53"/>
         <v>504.85752035555925</v>
       </c>
-      <c r="G74" s="51"/>
+      <c r="G74" s="97"/>
       <c r="H74" s="28">
         <f t="shared" si="54"/>
         <v>99.230533688896685</v>
       </c>
-      <c r="I74" s="62"/>
+      <c r="I74" s="100"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B75" s="25">
         <f t="shared" si="58"/>
         <v>4.0406666666666702</v>
@@ -26182,21 +27253,143 @@
         <f t="shared" si="55"/>
         <v>652.12118946667761</v>
       </c>
-      <c r="E75" s="52"/>
+      <c r="E75" s="98"/>
       <c r="F75" s="25">
         <f t="shared" si="53"/>
         <v>390.25291702222603</v>
       </c>
-      <c r="G75" s="52"/>
+      <c r="G75" s="98"/>
       <c r="H75" s="28">
         <f t="shared" si="54"/>
         <v>-38.556069644429954</v>
       </c>
-      <c r="I75" s="63"/>
+      <c r="I75" s="101"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="146">
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="Q16:R24"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W7:X15"/>
+    <mergeCell ref="W16:X24"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="AA25:AB33"/>
+    <mergeCell ref="Y25:Z33"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="AD23:AH23"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="S25:T33"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="AD28:AH28"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AO10:AS10"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AD19:AH19"/>
+    <mergeCell ref="AD21:AH21"/>
+    <mergeCell ref="AD22:AH22"/>
+    <mergeCell ref="AD25:AH25"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="AD20:AH20"/>
+    <mergeCell ref="AA16:AB24"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="AD27:AH27"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="Q7:R15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="S7:T15"/>
@@ -26221,128 +27414,6 @@
     <mergeCell ref="O28:O30"/>
     <mergeCell ref="O31:O33"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="Q7:R15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="AO10:AS10"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AD19:AH19"/>
-    <mergeCell ref="AD21:AH21"/>
-    <mergeCell ref="AD22:AH22"/>
-    <mergeCell ref="AD25:AH25"/>
-    <mergeCell ref="AD26:AH26"/>
-    <mergeCell ref="AD20:AH20"/>
-    <mergeCell ref="AA16:AB24"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="O19:O21"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="O34:O36"/>
-    <mergeCell ref="O37:O39"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="AA25:AB33"/>
-    <mergeCell ref="Y25:Z33"/>
-    <mergeCell ref="AD17:AH17"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="AD23:AH23"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="S25:T33"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="AD28:AH28"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="Q16:R24"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W7:X15"/>
-    <mergeCell ref="W16:X24"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="I66:I68"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="K10:K12"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26350,38 +27421,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -26407,7 +27478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -26431,7 +27502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
@@ -26455,7 +27526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
